--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="167">
   <si>
     <t>Team</t>
   </si>
@@ -386,6 +387,138 @@
   </si>
   <si>
     <t>2.3095</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Albion Rvs,D W L W W D</t>
+  </si>
+  <si>
+    <t>Annan Athletic,W W L D W D</t>
+  </si>
+  <si>
+    <t>Brechin,L L D W L D</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,D L D W L D</t>
+  </si>
+  <si>
+    <t>Edinburgh City,W L W L L W</t>
+  </si>
+  <si>
+    <t>Elgin,L L D W W L</t>
+  </si>
+  <si>
+    <t>Queens Park,W W D L W W</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,W L L L D L</t>
+  </si>
+  <si>
+    <t>Stirling,W L W L L D</t>
+  </si>
+  <si>
+    <t>Stranraer,W W W W L D</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 5 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Annan Athletic,3 5 0 1 3 1</t>
+  </si>
+  <si>
+    <t>Brechin,1 0 0 2 0 1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 1 0 2 0 1</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 2 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Elgin,0 2 0 4 3 0</t>
+  </si>
+  <si>
+    <t>Queens Park,1 3 0 0 2 2</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Stirling,5 0 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Stranraer,1 4 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 2 2 0 0 1</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 1 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Brechin,2 3 0 0 3 1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 5 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1 3 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Elgin,2 5 0 1 1 2</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 4 5 2 1 1</t>
+  </si>
+  <si>
+    <t>Stirling,1 1 0 2 3 2</t>
+  </si>
+  <si>
+    <t>Stranraer,0 0 0 0 4 2</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 7 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Annan Athletic,3 6 1 2 3 2</t>
+  </si>
+  <si>
+    <t>Brechin,3 3 0 2 3 2</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 6 0 2 2 2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3 5 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Elgin,2 7 0 5 4 2</t>
+  </si>
+  <si>
+    <t>Queens Park,1 5 0 1 3 2</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 4 6 2 2 1</t>
+  </si>
+  <si>
+    <t>Stirling,6 1 1 3 4 4</t>
+  </si>
+  <si>
+    <t>Stranraer,1 4 2 1 5 4</t>
   </si>
 </sst>
 </file>
@@ -5310,4 +5443,202 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="L6" r:id="rId9" sheetId="7"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="243">
   <si>
     <t>Team</t>
   </si>
@@ -83,21 +84,21 @@
     <t>Edinburgh City</t>
   </si>
   <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
     <t>Stirling</t>
   </si>
   <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
+    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Albion Rvs</t>
   </si>
   <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
     <t>Annan Athletic</t>
   </si>
   <si>
@@ -107,286 +108,514 @@
     <t>Brechin</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>X2020.10.17</t>
+  </si>
+  <si>
+    <t>X2020.10.24</t>
+  </si>
+  <si>
+    <t>X2020.10.31</t>
+  </si>
+  <si>
+    <t>X2020.11.07</t>
+  </si>
+  <si>
+    <t>X2020.11.21</t>
+  </si>
+  <si>
+    <t>X2020.11.28</t>
+  </si>
+  <si>
+    <t>X2020.12.05</t>
+  </si>
+  <si>
+    <t>X2020.12.12</t>
+  </si>
+  <si>
+    <t>X2020.12.19</t>
+  </si>
+  <si>
+    <t>X2020.12.22</t>
+  </si>
+  <si>
+    <t>X2021.01.02</t>
+  </si>
+  <si>
+    <t>X2021.03.20</t>
+  </si>
+  <si>
+    <t>X2021.03.23</t>
+  </si>
+  <si>
+    <t>X2021.03.27</t>
+  </si>
+  <si>
+    <t>X2021.03.30</t>
+  </si>
+  <si>
+    <t>X2021.04.03</t>
+  </si>
+  <si>
+    <t>X2021.04.06</t>
+  </si>
+  <si>
+    <t>X2021.04.08</t>
+  </si>
+  <si>
+    <t>X2021.04.10</t>
+  </si>
+  <si>
+    <t>X2021.04.13</t>
+  </si>
+  <si>
+    <t>X2021.04.15</t>
+  </si>
+  <si>
+    <t>X2021.04.17</t>
+  </si>
+  <si>
+    <t>X2021.04.20</t>
+  </si>
+  <si>
+    <t>X2021.04.23</t>
+  </si>
+  <si>
+    <t>X2021.04.24</t>
+  </si>
+  <si>
+    <t>X2021.04.27</t>
+  </si>
+  <si>
+    <t>X2021.04.29</t>
+  </si>
+  <si>
+    <t>X2021.05.01</t>
+  </si>
+  <si>
+    <t>X2021.05.04</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>X2020.10.17</t>
-  </si>
-  <si>
-    <t>X2020.10.24</t>
-  </si>
-  <si>
-    <t>X2020.10.31</t>
-  </si>
-  <si>
-    <t>X2020.11.07</t>
-  </si>
-  <si>
-    <t>X2020.11.21</t>
-  </si>
-  <si>
-    <t>X2020.11.28</t>
-  </si>
-  <si>
-    <t>X2020.12.05</t>
-  </si>
-  <si>
-    <t>X2020.12.12</t>
-  </si>
-  <si>
-    <t>X2020.12.19</t>
-  </si>
-  <si>
-    <t>X2020.12.22</t>
-  </si>
-  <si>
-    <t>X2021.01.02</t>
-  </si>
-  <si>
-    <t>X2021.03.20</t>
-  </si>
-  <si>
-    <t>X2021.03.23</t>
-  </si>
-  <si>
-    <t>X2021.03.27</t>
-  </si>
-  <si>
-    <t>X2021.03.30</t>
-  </si>
-  <si>
-    <t>X2021.04.03</t>
-  </si>
-  <si>
-    <t>X2021.04.06</t>
-  </si>
-  <si>
-    <t>X2021.04.08</t>
-  </si>
-  <si>
-    <t>X2021.04.10</t>
-  </si>
-  <si>
-    <t>X2021.04.13</t>
-  </si>
-  <si>
-    <t>X2021.04.15</t>
-  </si>
-  <si>
-    <t>X2021.04.17</t>
-  </si>
-  <si>
-    <t>X2021.04.20</t>
-  </si>
-  <si>
-    <t>X2021.04.23</t>
-  </si>
-  <si>
-    <t>X2021.04.24</t>
-  </si>
-  <si>
-    <t>X2021.04.27</t>
-  </si>
-  <si>
-    <t>X2021.04.29</t>
-  </si>
-  <si>
-    <t>X2021.05.01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>40.5</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>43.5</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>2.6667</t>
-  </si>
-  <si>
-    <t>1.9286</t>
-  </si>
-  <si>
-    <t>2.6429</t>
-  </si>
-  <si>
-    <t>2.0714</t>
-  </si>
-  <si>
-    <t>2.4762</t>
-  </si>
-  <si>
-    <t>2.3095</t>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>2.5682</t>
+  </si>
+  <si>
+    <t>2.3636</t>
+  </si>
+  <si>
+    <t>1.8636</t>
+  </si>
+  <si>
+    <t>2.4773</t>
+  </si>
+  <si>
+    <t>2.0682</t>
+  </si>
+  <si>
+    <t>2.3409</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Group.1</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TFthg</t>
+  </si>
+  <si>
+    <t>Avg_Fthg</t>
+  </si>
+  <si>
+    <t>TFtag</t>
+  </si>
+  <si>
+    <t>Avg_Ftag</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>HSTC</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>TSTC</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TFthc</t>
+  </si>
+  <si>
+    <t>Avg_Fthc</t>
+  </si>
+  <si>
+    <t>TFtac</t>
+  </si>
+  <si>
+    <t>Avg_Ftac</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>HSCC</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>TSCC</t>
+  </si>
+  <si>
+    <t>26.79%</t>
+  </si>
+  <si>
+    <t>17.65%</t>
+  </si>
+  <si>
+    <t>29.03%</t>
+  </si>
+  <si>
+    <t>40.91%</t>
+  </si>
+  <si>
+    <t>37.10%</t>
+  </si>
+  <si>
+    <t>39.62%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>37.04%</t>
+  </si>
+  <si>
+    <t>42.50%</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>35.48%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>46.00%</t>
+  </si>
+  <si>
+    <t>34.04%</t>
+  </si>
+  <si>
+    <t>27.17%</t>
+  </si>
+  <si>
+    <t>21.67%</t>
+  </si>
+  <si>
+    <t>23.44%</t>
+  </si>
+  <si>
+    <t>37.86%</t>
+  </si>
+  <si>
+    <t>37.39%</t>
+  </si>
+  <si>
+    <t>32.05%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>35.64%</t>
+  </si>
+  <si>
+    <t>38.30%</t>
+  </si>
+  <si>
+    <t>35.53%</t>
+  </si>
+  <si>
+    <t>43.18%</t>
+  </si>
+  <si>
+    <t>35.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>27.08%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>36.11%</t>
+  </si>
+  <si>
+    <t>36.67%</t>
+  </si>
+  <si>
+    <t>20.45%</t>
+  </si>
+  <si>
+    <t>35.85%</t>
+  </si>
+  <si>
+    <t>29.55%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>26.67%</t>
+  </si>
+  <si>
+    <t>31.88%</t>
+  </si>
+  <si>
+    <t>32.50%</t>
+  </si>
+  <si>
+    <t>32.43%</t>
+  </si>
+  <si>
+    <t>29.67%</t>
+  </si>
+  <si>
+    <t>35.66%</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>29.17%</t>
+  </si>
+  <si>
+    <t>30.23%</t>
+  </si>
+  <si>
+    <t>29.91%</t>
+  </si>
+  <si>
+    <t>30.14%</t>
+  </si>
+  <si>
+    <t>34.25%</t>
   </si>
   <si>
     <t>Form</t>
@@ -401,124 +630,124 @@
     <t>Total Goals</t>
   </si>
   <si>
-    <t>Albion Rvs,D W L W W D</t>
+    <t>Albion Rvs,W L W W D L</t>
   </si>
   <si>
     <t>Annan Athletic,W W L D W D</t>
   </si>
   <si>
-    <t>Brechin,L L D W L D</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,D L D W L D</t>
-  </si>
-  <si>
-    <t>Edinburgh City,W L W L L W</t>
-  </si>
-  <si>
-    <t>Elgin,L L D W W L</t>
-  </si>
-  <si>
-    <t>Queens Park,W W D L W W</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,W L L L D L</t>
+    <t>Brechin,L D W L D L</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L D W L D W</t>
+  </si>
+  <si>
+    <t>Edinburgh City,L W L L W L</t>
+  </si>
+  <si>
+    <t>Elgin,L D W W L W</t>
+  </si>
+  <si>
+    <t>Queens Park,W D L W W L</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,L L L D L W</t>
   </si>
   <si>
     <t>Stirling,W L W L L D</t>
   </si>
   <si>
-    <t>Stranraer,W W W W L D</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 5 0 1 1 1</t>
+    <t>Stranraer,W W W L D W</t>
+  </si>
+  <si>
+    <t>Albion Rvs,5 0 1 1 1 0</t>
   </si>
   <si>
     <t>Annan Athletic,3 5 0 1 3 1</t>
   </si>
   <si>
-    <t>Brechin,1 0 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 1 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Elgin,0 2 0 4 3 0</t>
-  </si>
-  <si>
-    <t>Queens Park,1 3 0 0 2 2</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 0 1 0 1 0</t>
+    <t>Brechin,0 0 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 0 2 0 1 2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Elgin,2 0 4 3 0 3</t>
+  </si>
+  <si>
+    <t>Queens Park,3 0 0 2 2 2</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 1 0 1 0 1</t>
   </si>
   <si>
     <t>Stirling,5 0 1 1 1 2</t>
   </si>
   <si>
-    <t>Stranraer,1 4 2 1 1 2</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 2 2 0 0 1</t>
+    <t>Stranraer,4 2 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 2 0 0 1 2</t>
   </si>
   <si>
     <t>Annan Athletic,0 1 1 1 0 1</t>
   </si>
   <si>
-    <t>Brechin,2 3 0 0 3 1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 5 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 3 0 1 2 0</t>
-  </si>
-  <si>
-    <t>Elgin,2 5 0 1 1 2</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 4 5 2 1 1</t>
+    <t>Brechin,3 0 0 3 1 1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,5 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3 0 1 2 0 2</t>
+  </si>
+  <si>
+    <t>Elgin,5 0 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Queens Park,2 0 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 5 2 1 1 0</t>
   </si>
   <si>
     <t>Stirling,1 1 0 2 3 2</t>
   </si>
   <si>
-    <t>Stranraer,0 0 0 0 4 2</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 7 2 1 1 2</t>
+    <t>Stranraer,0 0 0 4 2 1</t>
+  </si>
+  <si>
+    <t>Albion Rvs,7 2 1 1 2 2</t>
   </si>
   <si>
     <t>Annan Athletic,3 6 1 2 3 2</t>
   </si>
   <si>
-    <t>Brechin,3 3 0 2 3 2</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 6 0 2 2 2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,3 5 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Elgin,2 7 0 5 4 2</t>
-  </si>
-  <si>
-    <t>Queens Park,1 5 0 1 3 2</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 4 6 2 2 1</t>
+    <t>Brechin,3 0 2 3 2 1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,6 0 2 2 2 2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,5 1 1 2 2 3</t>
+  </si>
+  <si>
+    <t>Elgin,7 0 5 4 2 5</t>
+  </si>
+  <si>
+    <t>Queens Park,5 0 1 3 2 5</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 6 2 2 1 1</t>
   </si>
   <si>
     <t>Stirling,6 1 1 3 4 4</t>
   </si>
   <si>
-    <t>Stranraer,1 4 2 1 5 4</t>
+    <t>Stranraer,4 2 1 5 4 3</t>
   </si>
 </sst>
 </file>
@@ -610,19 +839,19 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -642,25 +871,25 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -671,28 +900,28 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +935,25 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -741,22 +970,22 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -773,22 +1002,22 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -802,25 +1031,25 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -843,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +1095,25 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +1133,10 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -935,93 +1164,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1106,6 +1338,9 @@
       </c>
       <c r="AC2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1196,6 +1431,9 @@
       <c r="AC3" t="s">
         <v>3</v>
       </c>
+      <c r="AD3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1285,6 +1523,9 @@
       <c r="AC4" t="s">
         <v>3</v>
       </c>
+      <c r="AD4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1374,6 +1615,9 @@
       <c r="AC5" t="s">
         <v>3</v>
       </c>
+      <c r="AD5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1463,10 +1707,13 @@
       <c r="AC6" t="s">
         <v>2</v>
       </c>
+      <c r="AD6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1551,6 +1798,9 @@
       </c>
       <c r="AC7" t="s">
         <v>4</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1641,10 +1891,13 @@
       <c r="AC8" t="s">
         <v>85</v>
       </c>
+      <c r="AD8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1730,10 +1983,13 @@
       <c r="AC9" t="s">
         <v>85</v>
       </c>
+      <c r="AD9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1819,10 +2075,13 @@
       <c r="AC10" t="s">
         <v>3</v>
       </c>
+      <c r="AD10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1907,6 +2166,9 @@
       </c>
       <c r="AC11" t="s">
         <v>3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1925,93 +2187,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2096,6 +2361,9 @@
       </c>
       <c r="AC2" t="s">
         <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -2186,6 +2454,9 @@
       <c r="AC3" t="s">
         <v>9</v>
       </c>
+      <c r="AD3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2275,6 +2546,9 @@
       <c r="AC4" t="s">
         <v>9</v>
       </c>
+      <c r="AD4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2364,6 +2638,9 @@
       <c r="AC5" t="s">
         <v>9</v>
       </c>
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2453,10 +2730,13 @@
       <c r="AC6" t="s">
         <v>10</v>
       </c>
+      <c r="AD6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2541,6 +2821,9 @@
       </c>
       <c r="AC7" t="s">
         <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -2631,10 +2914,13 @@
       <c r="AC8" t="s">
         <v>85</v>
       </c>
+      <c r="AD8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2719,11 +3005,14 @@
       </c>
       <c r="AC9" t="s">
         <v>85</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -2809,10 +3098,13 @@
       <c r="AC10" t="s">
         <v>10</v>
       </c>
+      <c r="AD10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2896,6 +3188,9 @@
         <v>85</v>
       </c>
       <c r="AC11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2915,93 +3210,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3086,6 +3384,9 @@
       </c>
       <c r="AC2" t="s">
         <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3176,6 +3477,9 @@
       <c r="AC3" t="s">
         <v>9</v>
       </c>
+      <c r="AD3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3265,6 +3569,9 @@
       <c r="AC4" t="s">
         <v>9</v>
       </c>
+      <c r="AD4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3354,6 +3661,9 @@
       <c r="AC5" t="s">
         <v>9</v>
       </c>
+      <c r="AD5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3443,10 +3753,13 @@
       <c r="AC6" t="s">
         <v>86</v>
       </c>
+      <c r="AD6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3530,6 +3843,9 @@
         <v>9</v>
       </c>
       <c r="AC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3621,10 +3937,13 @@
       <c r="AC8" t="s">
         <v>85</v>
       </c>
+      <c r="AD8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -3710,10 +4029,13 @@
       <c r="AC9" t="s">
         <v>85</v>
       </c>
+      <c r="AD9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -3798,11 +4120,14 @@
       </c>
       <c r="AC10" t="s">
         <v>10</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -3887,6 +4212,9 @@
       </c>
       <c r="AC11" t="s">
         <v>10</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3905,93 +4233,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -4075,6 +4406,9 @@
         <v>9</v>
       </c>
       <c r="AC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4166,6 +4500,9 @@
       <c r="AC3" t="s">
         <v>10</v>
       </c>
+      <c r="AD3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4255,6 +4592,9 @@
       <c r="AC4" t="s">
         <v>10</v>
       </c>
+      <c r="AD4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4344,6 +4684,9 @@
       <c r="AC5" t="s">
         <v>10</v>
       </c>
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4433,10 +4776,13 @@
       <c r="AC6" t="s">
         <v>10</v>
       </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -4521,6 +4867,9 @@
       </c>
       <c r="AC7" t="s">
         <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -4611,10 +4960,13 @@
       <c r="AC8" t="s">
         <v>85</v>
       </c>
+      <c r="AD8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -4700,10 +5052,13 @@
       <c r="AC9" t="s">
         <v>85</v>
       </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -4789,10 +5144,13 @@
       <c r="AC10" t="s">
         <v>12</v>
       </c>
+      <c r="AD10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -4877,6 +5235,9 @@
       </c>
       <c r="AC11" t="s">
         <v>12</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4910,19 +5271,19 @@
         <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
         <v>91</v>
@@ -4942,7 +5303,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -4978,7 +5339,7 @@
         <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>109</v>
@@ -5025,16 +5386,16 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
         <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
         <v>10</v>
@@ -5066,7 +5427,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -5075,10 +5436,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
         <v>111</v>
@@ -5087,7 +5448,7 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -5095,7 +5456,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -5125,10 +5486,10 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s">
         <v>112</v>
@@ -5137,7 +5498,7 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
@@ -5175,24 +5536,24 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -5213,7 +5574,7 @@
         <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -5225,19 +5586,19 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -5275,10 +5636,10 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
         <v>114</v>
@@ -5287,12 +5648,12 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -5325,10 +5686,10 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
         <v>115</v>
@@ -5337,12 +5698,12 @@
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -5375,16 +5736,16 @@
         <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
         <v>10</v>
@@ -5392,7 +5753,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -5407,7 +5768,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -5425,7 +5786,7 @@
         <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
         <v>108</v>
@@ -5437,7 +5798,7 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5456,16 +5817,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -5473,16 +5894,76 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>157</v>
+        <v>25</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="T2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="W2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -5490,16 +5971,76 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>158</v>
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="V3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4">
@@ -5507,16 +6048,76 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="T4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="V4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5">
@@ -5524,16 +6125,76 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -5541,16 +6202,76 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>161</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="P6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>176</v>
+      </c>
+      <c r="X6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -5558,16 +6279,76 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>162</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.090909090909091</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="J7" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="T7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8">
@@ -5575,16 +6356,76 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" t="s">
-        <v>163</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -5592,16 +6433,76 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -5609,16 +6510,76 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>165</v>
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.090909090909091</v>
+      </c>
+      <c r="J10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="T10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -5626,16 +6587,274 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="J11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="V11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X11" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="254">
   <si>
     <t>Team</t>
   </si>
@@ -630,6 +630,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Albion Rvs,W L W W D L</t>
   </si>
   <si>
@@ -748,6 +751,36 @@
   </si>
   <si>
     <t>Stranraer,4 2 1 5 4 3</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Elgin Stranraer Annan Athletic Stenhousemuir Brechin Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Brechin Stenhousemuir Albion Rvs Stenhousemuir Brechin Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Brechin,Annan Athletic Cowdenbeath Cowdenbeath Annan Athletic Albion Rvs Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Stirling Brechin Stenhousemuir Brechin Annan Athletic Albion Rvs</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Queens Park Stirling Stirling Queens Park Elgin Stranraer</t>
+  </si>
+  <si>
+    <t>Elgin,Albion Rvs Queens Park Stranraer Stirling Edinburgh City Queens Park</t>
+  </si>
+  <si>
+    <t>Queens Park,Edinburgh City Elgin Stranraer Stirling Edinburgh City Elgin</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Stranraer Annan Athletic Cowdenbeath Annan Athletic Albion Rvs Brechin</t>
+  </si>
+  <si>
+    <t>Stirling,Cowdenbeath Edinburgh City Edinburgh City Queens Park Elgin Stranraer</t>
+  </si>
+  <si>
+    <t>Stranraer,Stenhousemuir Albion Rvs Queens Park Elgin Stirling Edinburgh City</t>
   </si>
 </sst>
 </file>
@@ -6686,22 +6719,28 @@
       <c r="E1" t="s">
         <v>202</v>
       </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3">
@@ -6709,16 +6748,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
@@ -6726,16 +6768,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -6743,16 +6788,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -6760,16 +6808,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7">
@@ -6777,16 +6828,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="F7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -6794,16 +6848,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="F8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -6811,16 +6868,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10">
@@ -6828,16 +6888,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11">
@@ -6845,16 +6908,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -663,94 +663,94 @@
     <t>Stranraer,W W W L D W</t>
   </si>
   <si>
-    <t>Albion Rvs,5 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Annan Athletic,3 5 0 1 3 1</t>
-  </si>
-  <si>
-    <t>Brechin,0 0 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 0 2 0 1 2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 1 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Elgin,2 0 4 3 0 3</t>
-  </si>
-  <si>
-    <t>Queens Park,3 0 0 2 2 2</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 1 0 1 0 1</t>
-  </si>
-  <si>
-    <t>Stirling,5 0 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Stranraer,4 2 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 2 0 0 1 2</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0 1 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Brechin,3 0 0 3 1 1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,5 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Edinburgh City,3 0 1 2 0 2</t>
-  </si>
-  <si>
-    <t>Elgin,5 0 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Queens Park,2 0 1 1 0 3</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,4 5 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Stirling,1 1 0 2 3 2</t>
-  </si>
-  <si>
-    <t>Stranraer,0 0 0 4 2 1</t>
-  </si>
-  <si>
-    <t>Albion Rvs,7 2 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Annan Athletic,3 6 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Brechin,3 0 2 3 2 1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,6 0 2 2 2 2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,5 1 1 2 2 3</t>
-  </si>
-  <si>
-    <t>Elgin,7 0 5 4 2 5</t>
-  </si>
-  <si>
-    <t>Queens Park,5 0 1 3 2 5</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,4 6 2 2 1 1</t>
-  </si>
-  <si>
-    <t>Stirling,6 1 1 3 4 4</t>
-  </si>
-  <si>
-    <t>Stranraer,4 2 1 5 4 3</t>
+    <t>Albion Rvs,5 0 1 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,3 5 0 1 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Brechin,0 0 2 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 0 2 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Elgin,2 0 4 3 0 3,(12)</t>
+  </si>
+  <si>
+    <t>Queens Park,3 0 0 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 1 0 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Stirling,5 0 1 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Stranraer,4 2 1 1 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 2 0 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 1 1 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Brechin,3 0 0 3 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,5 0 0 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3 0 1 2 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Elgin,5 0 1 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Queens Park,2 0 1 1 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 5 2 1 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Stirling,1 1 0 2 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Stranraer,0 0 0 4 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,7 2 1 1 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,3 6 1 2 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Brechin,3 0 2 3 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,6 0 2 2 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,5 1 1 2 2 3,(14)</t>
+  </si>
+  <si>
+    <t>Elgin,7 0 5 4 2 5,(23)</t>
+  </si>
+  <si>
+    <t>Queens Park,5 0 1 3 2 5,(16)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 6 2 2 1 1,(16)</t>
+  </si>
+  <si>
+    <t>Stirling,6 1 1 3 4 4,(19)</t>
+  </si>
+  <si>
+    <t>Stranraer,4 2 1 5 4 3,(19)</t>
   </si>
   <si>
     <t>Albion Rvs,Elgin Stranraer Annan Athletic Stenhousemuir Brechin Cowdenbeath</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -621,214 +621,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Albion Rvs,L W L L L W</t>
-  </si>
-  <si>
-    <t>Annan Athletic,W L W L L L</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,L L D L D L</t>
-  </si>
-  <si>
-    <t>Edinburgh City,W W D W D L</t>
-  </si>
-  <si>
-    <t>Elgin,L D L W L L</t>
-  </si>
-  <si>
-    <t>Forfar,D L D W D W</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W D W W W W</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,L W L L D W</t>
-  </si>
-  <si>
-    <t>Stirling,W W D W W D</t>
-  </si>
-  <si>
-    <t>Stranraer,W L W L W D</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1 2 0 1 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,3 1 2 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 1 1 0 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 1 2 3 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Elgin,0 1 0 2 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Forfar,1 0 1 3 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,4 1 3 1 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 2 0 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Stirling,2 1 2 4 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Stranraer,2 0 2 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 1 3 3 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,1 2 0 3 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 2 1 4 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 0 2 1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Elgin,2 1 2 1 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Forfar,1 1 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 1 0 0 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,4 1 2 2 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Stirling,1 0 2 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 1 0 1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,3 3 3 4 1 2,(16)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,4 3 2 4 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,3 3 2 4 2 2,(16)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 1 4 4 2 5,(18)</t>
-  </si>
-  <si>
-    <t>Elgin,2 2 2 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Forfar,2 1 2 4 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,5 2 3 1 3 5,(19)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,5 3 2 3 2 2,(17)</t>
-  </si>
-  <si>
-    <t>Stirling,3 1 4 4 2 2,(16)</t>
-  </si>
-  <si>
-    <t>Stranraer,3 1 2 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2-1 2-1 0-3 3-1 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Annan Athletic,1-3 1-2 0-2 1-3 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1-2 2-1 1-1 4-0 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2-0 0-1 2-2 1-3 1-1 2-3</t>
-  </si>
-  <si>
-    <t>Elgin,2-0 1-1 0-2 1-2 0-2 2-0</t>
-  </si>
-  <si>
-    <t>Forfar,1-1 1-0 1-1 3-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1-4 1-1 0-3 1-0 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1-4 1-2 2-0 1-2 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Stirling,2-1 1-0 2-2 4-0 0-2 1-1</t>
-  </si>
-  <si>
-    <t>Stranraer,1-2 0-1 2-0 1-0 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Albion Rvs,-1 1 -3 -2 -1 2,(-4)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 -1 2 -2 -1 -2,(-2)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,-1 -1 0 -4 0 -2,(-8)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 1 0 2 0 -1,(4)</t>
-  </si>
-  <si>
-    <t>Elgin,-2 0 -2 1 -2 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Forfar,0 -1 0 2 0 2,(3)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,3 0 3 1 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,-3 1 -2 -1 0 2,(-3)</t>
-  </si>
-  <si>
-    <t>Stirling,1 1 0 4 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 -1 2 -1 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Stirling(2) Cowdenbeath(10) Kelty Hearts(1) Forfar(3) Stranraer(6) Elgin(8)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Cowdenbeath(10) Stenhousemuir(9) Elgin(8) Edinburgh City(5) Kelty Hearts(1) Forfar(3)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Stranraer(6) Albion Rvs(7) Forfar(3) Stirling(2) Edinburgh City(5) Stenhousemuir(9)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Elgin(8) Stranraer(6) Stirling(2) Annan Athletic(4) Cowdenbeath(10) Kelty Hearts(1)</t>
-  </si>
-  <si>
-    <t>Elgin,Edinburgh City(5) Kelty Hearts(1) Annan Athletic(4) Stenhousemuir(9) Stirling(2) Albion Rvs(7)</t>
-  </si>
-  <si>
-    <t>Forfar,Stranraer(6) Stirling(2) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(9) Annan Athletic(4)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Stenhousemuir(9) Elgin(8) Albion Rvs(7) Stranraer(6) Annan Athletic(4) Edinburgh City(5)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Elgin(8) Forfar(3) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Stirling,Albion Rvs(7) Forfar(3) Edinburgh City(5) Cowdenbeath(10) Elgin(8) Stranraer(6)</t>
-  </si>
-  <si>
-    <t>Stranraer,Cowdenbeath(10) Edinburgh City(5) Stenhousemuir(9) Kelty Hearts(1) Albion Rvs(7) Stirling(2)</t>
+    <t>Albion Rvs,W D L L L W L L L W</t>
+  </si>
+  <si>
+    <t>Annan Athletic,L W W W W L W L L L</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L W D L L L D L D L</t>
+  </si>
+  <si>
+    <t>Edinburgh City,L L W L W W D W D L</t>
+  </si>
+  <si>
+    <t>Elgin,D L W D L D L W L L</t>
+  </si>
+  <si>
+    <t>Forfar,W W D D D L D W D W</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,W W D W W D W W W W</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,L D L D L W L L D W</t>
+  </si>
+  <si>
+    <t>Stirling,W L L W W W D W W D</t>
+  </si>
+  <si>
+    <t>Stranraer,D L L D W L W L W D</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 2 0 0 1 2 0 1 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 3 3 1 3 1 2 1 1 0,(15)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 3 1 1 1 1 1 0 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,0 0 1 0 2 1 2 3 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Elgin,1 1 3 1 0 1 0 2 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 2 1 1 0 1 3 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 3 2 1 4 1 3 1 2 3,(22)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 2 0 1 1 2 0 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Stirling,1 1 1 3 2 1 2 4 2 1,(18)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 0 0 1 2 0 2 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 2 3 1 2 1 3 3 1 0,(16)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 0 1 0 1 2 0 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2 1 1 3 2 2 1 4 1 2,(19)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 2 0 1 0 0 2 1 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Elgin,1 3 0 1 2 1 2 1 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Forfar,0 0 2 1 1 1 1 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,0 1 2 0 1 1 0 0 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 2 1 1 4 1 2 2 1 0,(15)</t>
+  </si>
+  <si>
+    <t>Stirling,0 3 3 0 1 0 2 0 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 3 3 1 1 1 0 1 0 1,(12)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 4 3 1 3 3 3 4 1 2,(26)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 3 4 1 4 3 2 4 3 2,(28)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2 4 2 4 3 3 2 4 2 2,(28)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 2 1 1 2 1 4 4 2 5,(24)</t>
+  </si>
+  <si>
+    <t>Elgin,2 4 3 2 2 2 2 3 2 2,(24)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 4 2 2 1 2 4 2 2,(23)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 4 4 1 5 2 3 1 3 5,(30)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 4 1 2 5 3 2 3 2 2,(25)</t>
+  </si>
+  <si>
+    <t>Stirling,1 4 4 3 3 1 4 4 2 2,(28)</t>
+  </si>
+  <si>
+    <t>Stranraer,2 3 3 2 3 1 2 1 1 2,(20)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2-0 2-2 3-0 0-1 2-1 2-1 0-3 3-1 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0-2 0-3 3-1 0-1 1-3 1-2 0-2 1-3 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2-0 3-1 1-1 1-3 1-2 2-1 1-1 4-0 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2-0 2-0 1-0 1-0 2-0 0-1 2-2 1-3 1-1 2-3</t>
+  </si>
+  <si>
+    <t>Elgin,1-1 3-1 3-0 1-1 2-0 1-1 0-2 1-2 0-2 2-0</t>
+  </si>
+  <si>
+    <t>Forfar,0-2 2-0 2-2 1-1 1-1 1-0 1-1 3-1 1-1 2-0</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2-0 1-3 2-2 1-0 1-4 1-1 0-3 1-0 2-1 2-3</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0-1 2-2 1-0 1-1 1-4 1-2 2-0 1-2 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Stirling,0-1 1-3 3-1 0-3 2-1 1-0 2-2 4-0 0-2 1-1</t>
+  </si>
+  <si>
+    <t>Stranraer,1-1 0-3 0-3 1-1 1-2 0-1 2-0 1-0 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 0 -3 -1 -1 1 -3 -2 -1 2,(-6)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,-2 3 2 1 2 -1 2 -2 -1 -2,(2)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,-2 2 0 -2 -1 -1 0 -4 0 -2,(-10)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,-2 -2 1 -1 2 1 0 2 0 -1,(0)</t>
+  </si>
+  <si>
+    <t>Elgin,0 -2 3 0 -2 0 -2 1 -2 -2,(-6)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 0 0 0 -1 0 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 2 0 1 3 0 3 1 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,-1 0 -1 0 -3 1 -2 -1 0 2,(-5)</t>
+  </si>
+  <si>
+    <t>Stirling,1 -2 -2 3 1 1 0 4 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Stranraer,0 -3 -3 0 1 -1 2 -1 1 0,(-4)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Edinburgh City(5) Stenhousemuir(9) Elgin(8) Annan Athletic(4) Stirling(2) Cowdenbeath(10) Kelty Hearts(1) Forfar(3) Stranraer(6) Elgin(8)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Forfar(3) Stranraer(6) Stirling(2) Albion Rvs(7) Cowdenbeath(10) Stenhousemuir(9) Elgin(8) Edinburgh City(5) Kelty Hearts(1) Forfar(3)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Kelty Hearts(1) Elgin(8) Stenhousemuir(9) Annan Athletic(4) Stranraer(6) Albion Rvs(7) Forfar(3) Stirling(2) Edinburgh City(5) Stenhousemuir(9)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Albion Rvs(7) Forfar(3) Stenhousemuir(9) Kelty Hearts(1) Elgin(8) Stranraer(6) Stirling(2) Annan Athletic(4) Cowdenbeath(10) Kelty Hearts(1)</t>
+  </si>
+  <si>
+    <t>Elgin,Stranraer(6) Cowdenbeath(10) Albion Rvs(7) Forfar(3) Edinburgh City(5) Kelty Hearts(1) Annan Athletic(4) Stenhousemuir(9) Stirling(2) Albion Rvs(7)</t>
+  </si>
+  <si>
+    <t>Forfar,Annan Athletic(4) Edinburgh City(5) Kelty Hearts(1) Elgin(8) Stranraer(6) Stirling(2) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(9) Annan Athletic(4)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,Cowdenbeath(10) Stirling(2) Forfar(3) Edinburgh City(5) Stenhousemuir(9) Elgin(8) Albion Rvs(7) Stranraer(6) Annan Athletic(4) Edinburgh City(5)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Stirling(2) Albion Rvs(7) Edinburgh City(5) Cowdenbeath(10) Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Elgin(8) Forfar(3) Cowdenbeath(10)</t>
+  </si>
+  <si>
+    <t>Stirling,Stenhousemuir(9) Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Albion Rvs(7) Forfar(3) Edinburgh City(5) Cowdenbeath(10) Elgin(8) Stranraer(6)</t>
+  </si>
+  <si>
+    <t>Stranraer,Elgin(8) Annan Athletic(4) Stirling(2) Forfar(3) Cowdenbeath(10) Edinburgh City(5) Stenhousemuir(9) Kelty Hearts(1) Albion Rvs(7) Stirling(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -621,214 +621,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Albion Rvs,W D L L L W L L L W</t>
-  </si>
-  <si>
-    <t>Annan Athletic,L W W W W L W L L L</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,L W D L L L D L D L</t>
-  </si>
-  <si>
-    <t>Edinburgh City,L L W L W W D W D L</t>
-  </si>
-  <si>
-    <t>Elgin,D L W D L D L W L L</t>
-  </si>
-  <si>
-    <t>Forfar,W W D D D L D W D W</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W W D W W D W W W W</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,L D L D L W L L D W</t>
-  </si>
-  <si>
-    <t>Stirling,W L L W W W D W W D</t>
-  </si>
-  <si>
-    <t>Stranraer,D L L D W L W L W D</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 2 0 0 1 2 0 1 0 2,(10)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0 3 3 1 3 1 2 1 1 0,(15)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 3 1 1 1 1 1 0 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 0 1 0 2 1 2 3 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Elgin,1 1 3 1 0 1 0 2 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 2 1 1 0 1 3 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 3 2 1 4 1 3 1 2 3,(22)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 2 0 1 1 2 0 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Stirling,1 1 1 3 2 1 2 4 2 1,(18)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 0 1 2 0 2 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 2 3 1 2 1 3 3 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 0 1 0 1 2 0 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 1 1 3 2 2 1 4 1 2,(19)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 0 1 0 0 2 1 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Elgin,1 3 0 1 2 1 2 1 2 2,(15)</t>
-  </si>
-  <si>
-    <t>Forfar,0 0 2 1 1 1 1 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,0 1 2 0 1 1 0 0 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 2 1 1 4 1 2 2 1 0,(15)</t>
-  </si>
-  <si>
-    <t>Stirling,0 3 3 0 1 0 2 0 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 3 3 1 1 1 0 1 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 4 3 1 3 3 3 4 1 2,(26)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 3 4 1 4 3 2 4 3 2,(28)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 4 2 4 3 3 2 4 2 2,(28)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 1 1 2 1 4 4 2 5,(24)</t>
-  </si>
-  <si>
-    <t>Elgin,2 4 3 2 2 2 2 3 2 2,(24)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 4 2 2 1 2 4 2 2,(23)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 4 4 1 5 2 3 1 3 5,(30)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 4 1 2 5 3 2 3 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Stirling,1 4 4 3 3 1 4 4 2 2,(28)</t>
-  </si>
-  <si>
-    <t>Stranraer,2 3 3 2 3 1 2 1 1 2,(20)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2-0 2-2 3-0 0-1 2-1 2-1 0-3 3-1 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0-2 0-3 3-1 0-1 1-3 1-2 0-2 1-3 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2-0 3-1 1-1 1-3 1-2 2-1 1-1 4-0 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2-0 2-0 1-0 1-0 2-0 0-1 2-2 1-3 1-1 2-3</t>
-  </si>
-  <si>
-    <t>Elgin,1-1 3-1 3-0 1-1 2-0 1-1 0-2 1-2 0-2 2-0</t>
-  </si>
-  <si>
-    <t>Forfar,0-2 2-0 2-2 1-1 1-1 1-0 1-1 3-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2-0 1-3 2-2 1-0 1-4 1-1 0-3 1-0 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0-1 2-2 1-0 1-1 1-4 1-2 2-0 1-2 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Stirling,0-1 1-3 3-1 0-3 2-1 1-0 2-2 4-0 0-2 1-1</t>
-  </si>
-  <si>
-    <t>Stranraer,1-1 0-3 0-3 1-1 1-2 0-1 2-0 1-0 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 0 -3 -1 -1 1 -3 -2 -1 2,(-6)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,-2 3 2 1 2 -1 2 -2 -1 -2,(2)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,-2 2 0 -2 -1 -1 0 -4 0 -2,(-10)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,-2 -2 1 -1 2 1 0 2 0 -1,(0)</t>
-  </si>
-  <si>
-    <t>Elgin,0 -2 3 0 -2 0 -2 1 -2 -2,(-6)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 0 0 0 -1 0 2 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 2 0 1 3 0 3 1 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,-1 0 -1 0 -3 1 -2 -1 0 2,(-5)</t>
-  </si>
-  <si>
-    <t>Stirling,1 -2 -2 3 1 1 0 4 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Stranraer,0 -3 -3 0 1 -1 2 -1 1 0,(-4)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Edinburgh City(5) Stenhousemuir(9) Elgin(8) Annan Athletic(4) Stirling(2) Cowdenbeath(10) Kelty Hearts(1) Forfar(3) Stranraer(6) Elgin(8)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Forfar(3) Stranraer(6) Stirling(2) Albion Rvs(7) Cowdenbeath(10) Stenhousemuir(9) Elgin(8) Edinburgh City(5) Kelty Hearts(1) Forfar(3)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Kelty Hearts(1) Elgin(8) Stenhousemuir(9) Annan Athletic(4) Stranraer(6) Albion Rvs(7) Forfar(3) Stirling(2) Edinburgh City(5) Stenhousemuir(9)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Albion Rvs(7) Forfar(3) Stenhousemuir(9) Kelty Hearts(1) Elgin(8) Stranraer(6) Stirling(2) Annan Athletic(4) Cowdenbeath(10) Kelty Hearts(1)</t>
-  </si>
-  <si>
-    <t>Elgin,Stranraer(6) Cowdenbeath(10) Albion Rvs(7) Forfar(3) Edinburgh City(5) Kelty Hearts(1) Annan Athletic(4) Stenhousemuir(9) Stirling(2) Albion Rvs(7)</t>
-  </si>
-  <si>
-    <t>Forfar,Annan Athletic(4) Edinburgh City(5) Kelty Hearts(1) Elgin(8) Stranraer(6) Stirling(2) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(9) Annan Athletic(4)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Cowdenbeath(10) Stirling(2) Forfar(3) Edinburgh City(5) Stenhousemuir(9) Elgin(8) Albion Rvs(7) Stranraer(6) Annan Athletic(4) Edinburgh City(5)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Stirling(2) Albion Rvs(7) Edinburgh City(5) Cowdenbeath(10) Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Elgin(8) Forfar(3) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Stirling,Stenhousemuir(9) Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Albion Rvs(7) Forfar(3) Edinburgh City(5) Cowdenbeath(10) Elgin(8) Stranraer(6)</t>
-  </si>
-  <si>
-    <t>Stranraer,Elgin(8) Annan Athletic(4) Stirling(2) Forfar(3) Cowdenbeath(10) Edinburgh City(5) Stenhousemuir(9) Kelty Hearts(1) Albion Rvs(7) Stirling(2)</t>
+    <t>Albion Rvs,L W L L L W</t>
+  </si>
+  <si>
+    <t>Annan Athletic,W L W L L L</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L L D L D L</t>
+  </si>
+  <si>
+    <t>Edinburgh City,W W D W D L</t>
+  </si>
+  <si>
+    <t>Elgin,L D L W L L</t>
+  </si>
+  <si>
+    <t>Forfar,D L D W D W</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,W D W W W W</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,L W L L D W</t>
+  </si>
+  <si>
+    <t>Stirling,W W D W W D</t>
+  </si>
+  <si>
+    <t>Stranraer,W L W L W D</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1 2 0 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,3 1 2 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 1 1 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 2 3 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Elgin,0 1 0 2 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Forfar,1 0 1 3 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,4 1 3 1 2 3,(14)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 2 0 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Stirling,2 1 2 4 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Stranraer,2 0 2 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 1 3 3 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,1 2 0 3 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2 2 1 4 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,0 0 2 1 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Elgin,2 1 2 1 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Forfar,1 1 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 1 0 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 1 2 2 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Stirling,1 0 2 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 1 0 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,3 3 3 4 1 2,(16)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,4 3 2 4 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,3 3 2 4 2 2,(16)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 4 4 2 5,(18)</t>
+  </si>
+  <si>
+    <t>Elgin,2 2 2 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Forfar,2 1 2 4 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,5 2 3 1 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,5 3 2 3 2 2,(17)</t>
+  </si>
+  <si>
+    <t>Stirling,3 1 4 4 2 2,(16)</t>
+  </si>
+  <si>
+    <t>Stranraer,3 1 2 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2-1 2-1 0-3 3-1 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Annan Athletic,1-3 1-2 0-2 1-3 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1-2 2-1 1-1 4-0 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2-0 0-1 2-2 1-3 1-1 2-3</t>
+  </si>
+  <si>
+    <t>Elgin,2-0 1-1 0-2 1-2 0-2 2-0</t>
+  </si>
+  <si>
+    <t>Forfar,1-1 1-0 1-1 3-1 1-1 2-0</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1-4 1-1 0-3 1-0 2-1 2-3</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1-4 1-2 2-0 1-2 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Stirling,2-1 1-0 2-2 4-0 0-2 1-1</t>
+  </si>
+  <si>
+    <t>Stranraer,1-2 0-1 2-0 1-0 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Albion Rvs,-1 1 -3 -2 -1 2,(-4)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 -1 2 -2 -1 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,-1 -1 0 -4 0 -2,(-8)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 0 2 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Elgin,-2 0 -2 1 -2 -2,(-7)</t>
+  </si>
+  <si>
+    <t>Forfar,0 -1 0 2 0 2,(3)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,3 0 3 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,-3 1 -2 -1 0 2,(-3)</t>
+  </si>
+  <si>
+    <t>Stirling,1 1 0 4 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 -1 2 -1 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Stirling(2) Cowdenbeath(10) Kelty Hearts(1) Forfar(3) Stranraer(6) Elgin(8)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Cowdenbeath(10) Stenhousemuir(9) Elgin(8) Edinburgh City(5) Kelty Hearts(1) Forfar(3)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Stranraer(6) Albion Rvs(7) Forfar(3) Stirling(2) Edinburgh City(5) Stenhousemuir(9)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Elgin(8) Stranraer(6) Stirling(2) Annan Athletic(4) Cowdenbeath(10) Kelty Hearts(1)</t>
+  </si>
+  <si>
+    <t>Elgin,Edinburgh City(5) Kelty Hearts(1) Annan Athletic(4) Stenhousemuir(9) Stirling(2) Albion Rvs(7)</t>
+  </si>
+  <si>
+    <t>Forfar,Stranraer(6) Stirling(2) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(9) Annan Athletic(4)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,Stenhousemuir(9) Elgin(8) Albion Rvs(7) Stranraer(6) Annan Athletic(4) Edinburgh City(5)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Kelty Hearts(1) Annan Athletic(4) Stranraer(6) Elgin(8) Forfar(3) Cowdenbeath(10)</t>
+  </si>
+  <si>
+    <t>Stirling,Albion Rvs(7) Forfar(3) Edinburgh City(5) Cowdenbeath(10) Elgin(8) Stranraer(6)</t>
+  </si>
+  <si>
+    <t>Stranraer,Cowdenbeath(10) Edinburgh City(5) Stenhousemuir(9) Kelty Hearts(1) Albion Rvs(7) Stirling(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -687,214 +687,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Albion Rvs,L W W L W D</t>
-  </si>
-  <si>
-    <t>Annan Athletic,L L W D L D</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,D L L L L L</t>
-  </si>
-  <si>
-    <t>Edinburgh City,D L L W W D</t>
-  </si>
-  <si>
-    <t>Elgin,L L L W L D</t>
-  </si>
-  <si>
-    <t>Forfar,D W W W L W</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W W D W W W</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,D W W W W L</t>
-  </si>
-  <si>
-    <t>Stirling,W D D L L L</t>
-  </si>
-  <si>
-    <t>Stranraer,W D L D L W</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 2 4 1 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,1 0 1 2 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 0 0 0 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 2 0 3 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Elgin,0 0 1 1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Forfar,1 2 3 2 0 3,(11)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 3 1 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 2 3 3 2 0,(11)</t>
-  </si>
-  <si>
-    <t>Stirling,2 1 1 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 1 2 2 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1 0 0 3 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 2 0 2 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 2 1 1 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 3 4 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Elgin,2 2 2 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Forfar,1 0 2 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 2 1 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 0 1 1 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Stirling,0 1 1 3 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Stranraer,0 1 3 2 3 0,(9)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1 2 4 4 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,3 2 1 4 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 2 1 1 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 5 4 4 3 2,(20)</t>
-  </si>
-  <si>
-    <t>Elgin,2 2 3 1 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 5 3 1 3,(16)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,3 5 2 1 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 2 4 4 2 2,(16)</t>
-  </si>
-  <si>
-    <t>Stirling,2 2 2 4 1 3,(14)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 2 5 4 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1-0 2-0 0-4 3-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2-1 2-0 1-0 2-2 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1-1 0-2 1-0 0-1 1-0 3-0</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1-1 2-3 0-4 3-1 1-2 1-1</t>
-  </si>
-  <si>
-    <t>Elgin,0-2 2-0 2-1 1-0 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Forfar,1-1 2-0 2-3 2-1 1-0 3-0</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2-1 2-3 1-1 0-1 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1-1 0-2 1-3 3-1 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Stirling,0-2 1-1 1-1 1-3 1-0 1-2</t>
-  </si>
-  <si>
-    <t>Stranraer,1-0 1-1 2-3 2-2 3-1 1-0</t>
-  </si>
-  <si>
-    <t>Albion Rvs,-1 2 4 -2 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,-1 -2 1 0 -2 0,(-4)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 -2 -1 -1 -1 -3,(-8)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 -1 -4 2 1 0,(-2)</t>
-  </si>
-  <si>
-    <t>Elgin,-2 -2 -1 1 -1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Forfar,0 2 1 1 -1 3,(6)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 1 0 1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 2 2 2 2 -2,(6)</t>
-  </si>
-  <si>
-    <t>Stirling,2 0 0 -2 -1 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 -1 0 -2 1,(-1)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Stranraer(8) Elgin(9) Edinburgh City(3) Stenhousemuir(6) Stirling(4) Annan Athletic(5)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Kelty Hearts(1) Forfar(2) Cowdenbeath(10) Stranraer(8) Stenhousemuir(6) Albion Rvs(7)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Edinburgh City(3) Stenhousemuir(6) Annan Athletic(5) Kelty Hearts(1) Elgin(9) Forfar(2)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(7) Stranraer(8) Stirling(4) Elgin(9)</t>
-  </si>
-  <si>
-    <t>Elgin,Stirling(4) Albion Rvs(7) Forfar(2) Cowdenbeath(10) Stranraer(8) Edinburgh City(3)</t>
-  </si>
-  <si>
-    <t>Forfar,Stenhousemuir(6) Annan Athletic(5) Stranraer(8) Elgin(9) Kelty Hearts(1) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Annan Athletic(5) Edinburgh City(3) Stirling(4) Cowdenbeath(10) Forfar(2) Stenhousemuir(6)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Forfar(2) Cowdenbeath(10) Stirling(4) Albion Rvs(7) Annan Athletic(5) Kelty Hearts(1)</t>
-  </si>
-  <si>
-    <t>Stirling,Elgin(9) Stranraer(8) Kelty Hearts(1) Stenhousemuir(6) Albion Rvs(7) Edinburgh City(3)</t>
-  </si>
-  <si>
-    <t>Stranraer,Albion Rvs(7) Stirling(4) Forfar(2) Annan Athletic(5) Edinburgh City(3) Elgin(9)</t>
+    <t>Albion Rvs,W D L L L W L L L W W L W D</t>
+  </si>
+  <si>
+    <t>Annan Athletic,L W W W W L W L L L W D L D</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L W D L L L D L D L L L L L</t>
+  </si>
+  <si>
+    <t>Edinburgh City,L L W L W W D W D L L W W D</t>
+  </si>
+  <si>
+    <t>Elgin,D L W D L D L W L L L W L D</t>
+  </si>
+  <si>
+    <t>Forfar,W W D D D L D W D W W W L W</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,W W D W W D W W W W D W W W</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,L D L D L W L L D W W W W L</t>
+  </si>
+  <si>
+    <t>Stirling,W L L W W W D W W D D L L L</t>
+  </si>
+  <si>
+    <t>Stranraer,D L L D W L W L W D L D L W</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 2 0 0 1 2 0 1 0 2 4 1 1 1,(17)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 3 3 1 3 1 2 1 1 0 1 2 0 1,(19)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 3 1 1 1 1 1 0 1 0 0 0 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,0 0 1 0 2 1 2 3 1 2 0 3 2 1,(18)</t>
+  </si>
+  <si>
+    <t>Elgin,1 1 3 1 0 1 0 2 0 0 1 1 0 1,(12)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 2 1 1 0 1 3 1 2 3 2 0 3,(23)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 3 2 1 4 1 3 1 2 3 1 1 1 2,(27)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 2 0 1 1 2 0 1 1 2 3 3 2 0,(18)</t>
+  </si>
+  <si>
+    <t>Stirling,1 1 1 3 2 1 2 4 2 1 1 1 0 1,(21)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 0 0 1 2 0 2 0 1 1 2 2 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 2 3 1 2 1 3 3 1 0 0 3 0 1,(20)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 0 1 0 1 2 0 3 2 2 0 2 2 1,(18)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2 1 1 3 2 2 1 4 1 2 1 1 1 3,(25)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 2 0 1 0 0 2 1 1 3 4 1 1 1,(19)</t>
+  </si>
+  <si>
+    <t>Elgin,1 3 0 1 2 1 2 1 2 2 2 0 1 1,(19)</t>
+  </si>
+  <si>
+    <t>Forfar,0 0 2 1 1 1 1 1 1 0 2 1 1 0,(12)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,0 1 2 0 1 1 0 0 1 2 1 0 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 2 1 1 4 1 2 2 1 0 1 1 0 2,(19)</t>
+  </si>
+  <si>
+    <t>Stirling,0 3 3 0 1 0 2 0 0 1 1 3 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 3 3 1 1 1 0 1 0 1 3 2 3 0,(20)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 4 3 1 3 3 3 4 1 2 4 4 1 2,(37)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 3 4 1 4 3 2 4 3 2 1 4 2 2,(37)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2 4 2 4 3 3 2 4 2 2 1 1 1 3,(34)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 2 1 1 2 1 4 4 2 5 4 4 3 2,(37)</t>
+  </si>
+  <si>
+    <t>Elgin,2 4 3 2 2 2 2 3 2 2 3 1 1 2,(31)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 4 2 2 1 2 4 2 2 5 3 1 3,(35)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 4 4 1 5 2 3 1 3 5 2 1 1 2,(36)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 4 1 2 5 3 2 3 2 2 4 4 2 2,(37)</t>
+  </si>
+  <si>
+    <t>Stirling,1 4 4 3 3 1 4 4 2 2 2 4 1 3,(38)</t>
+  </si>
+  <si>
+    <t>Stranraer,2 3 3 2 3 1 2 1 1 2 5 4 4 1,(34)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2-0 2-2 3-0 0-1 2-1 2-1 0-3 3-1 1-0 2-0 0-4 3-1 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0-2 0-3 3-1 0-1 1-3 1-2 0-2 1-3 2-1 2-0 1-0 2-2 2-0 1-1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,2-0 3-1 1-1 1-3 1-2 2-1 1-1 4-0 1-1 0-2 1-0 0-1 1-0 3-0</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2-0 2-0 1-0 1-0 2-0 0-1 2-2 1-3 1-1 2-3 0-4 3-1 1-2 1-1</t>
+  </si>
+  <si>
+    <t>Elgin,1-1 3-1 3-0 1-1 2-0 1-1 0-2 1-2 0-2 2-0 2-1 1-0 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Forfar,0-2 2-0 2-2 1-1 1-1 1-0 1-1 3-1 1-1 2-0 2-3 2-1 1-0 3-0</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2-0 1-3 2-2 1-0 1-4 1-1 0-3 1-0 2-1 2-3 1-1 0-1 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0-1 2-2 1-0 1-1 1-4 1-2 2-0 1-2 1-1 0-2 1-3 3-1 2-0 2-0</t>
+  </si>
+  <si>
+    <t>Stirling,0-1 1-3 3-1 0-3 2-1 1-0 2-2 4-0 0-2 1-1 1-1 1-3 1-0 1-2</t>
+  </si>
+  <si>
+    <t>Stranraer,1-1 0-3 0-3 1-1 1-2 0-1 2-0 1-0 1-0 1-1 2-3 2-2 3-1 1-0</t>
+  </si>
+  <si>
+    <t>Albion Rvs,2 0 -3 -1 -1 1 -3 -2 -1 2 4 -2 1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,-2 3 2 1 2 -1 2 -2 -1 -2 1 0 -2 0,(1)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,-2 2 0 -2 -1 -1 0 -4 0 -2 -1 -1 -1 -3,(-16)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,-2 -2 1 -1 2 1 0 2 0 -1 -4 2 1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Elgin,0 -2 3 0 -2 0 -2 1 -2 -2 -1 1 -1 0,(-7)</t>
+  </si>
+  <si>
+    <t>Forfar,2 2 0 0 0 -1 0 2 0 2 1 1 -1 3,(11)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 2 0 1 3 0 3 1 1 1 0 1 1 2,(18)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,-1 0 -1 0 -3 1 -2 -1 0 2 2 2 2 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Stirling,1 -2 -2 3 1 1 0 4 2 0 0 -2 -1 -1,(4)</t>
+  </si>
+  <si>
+    <t>Stranraer,0 -3 -3 0 1 -1 2 -1 1 0 -1 0 -2 1,(-6)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Edinburgh City(3) Stenhousemuir(6) Elgin(9) Annan Athletic(5) Stirling(4) Cowdenbeath(10) Kelty Hearts(1) Forfar(2) Stranraer(8) Elgin(9) Edinburgh City(3) Stenhousemuir(6) Stirling(4) Annan Athletic(5)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Forfar(2) Stranraer(8) Stirling(4) Albion Rvs(7) Cowdenbeath(10) Stenhousemuir(6) Elgin(9) Edinburgh City(3) Kelty Hearts(1) Forfar(2) Cowdenbeath(10) Stranraer(8) Stenhousemuir(6) Albion Rvs(7)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Kelty Hearts(1) Elgin(9) Stenhousemuir(6) Annan Athletic(5) Stranraer(8) Albion Rvs(7) Forfar(2) Stirling(4) Edinburgh City(3) Stenhousemuir(6) Annan Athletic(5) Kelty Hearts(1) Elgin(9) Forfar(2)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Albion Rvs(7) Forfar(2) Stenhousemuir(6) Kelty Hearts(1) Elgin(9) Stranraer(8) Stirling(4) Annan Athletic(5) Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(7) Stranraer(8) Stirling(4) Elgin(9)</t>
+  </si>
+  <si>
+    <t>Elgin,Stranraer(8) Cowdenbeath(10) Albion Rvs(7) Forfar(2) Edinburgh City(3) Kelty Hearts(1) Annan Athletic(5) Stenhousemuir(6) Stirling(4) Albion Rvs(7) Forfar(2) Cowdenbeath(10) Stranraer(8) Edinburgh City(3)</t>
+  </si>
+  <si>
+    <t>Forfar,Annan Athletic(5) Edinburgh City(3) Kelty Hearts(1) Elgin(9) Stranraer(8) Stirling(4) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(6) Annan Athletic(5) Stranraer(8) Elgin(9) Kelty Hearts(1) Cowdenbeath(10)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,Cowdenbeath(10) Stirling(4) Forfar(2) Edinburgh City(3) Stenhousemuir(6) Elgin(9) Albion Rvs(7) Stranraer(8) Annan Athletic(5) Edinburgh City(3) Stirling(4) Cowdenbeath(10) Forfar(2) Stenhousemuir(6)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Stirling(4) Albion Rvs(7) Edinburgh City(3) Cowdenbeath(10) Kelty Hearts(1) Annan Athletic(5) Stranraer(8) Elgin(9) Forfar(2) Cowdenbeath(10) Stirling(4) Albion Rvs(7) Annan Athletic(5) Kelty Hearts(1)</t>
+  </si>
+  <si>
+    <t>Stirling,Stenhousemuir(6) Kelty Hearts(1) Annan Athletic(5) Stranraer(8) Albion Rvs(7) Forfar(2) Edinburgh City(3) Cowdenbeath(10) Elgin(9) Stranraer(8) Kelty Hearts(1) Stenhousemuir(6) Albion Rvs(7) Edinburgh City(3)</t>
+  </si>
+  <si>
+    <t>Stranraer,Elgin(9) Annan Athletic(5) Stirling(4) Forfar(2) Cowdenbeath(10) Edinburgh City(3) Stenhousemuir(6) Kelty Hearts(1) Albion Rvs(7) Stirling(4) Forfar(2) Annan Athletic(5) Edinburgh City(3) Elgin(9)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -738,214 +738,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Albion Rvs,W D L L L W L L L W W L W D L L D</t>
-  </si>
-  <si>
-    <t>Annan Athletic,L W W W W L W L L L W D L D W W W</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,L W D L L L D L D L L L L L W L D</t>
-  </si>
-  <si>
-    <t>Edinburgh City,L L W L W W D W D L L W W D L D L</t>
-  </si>
-  <si>
-    <t>Elgin,D L W D L D L W L L L W L D L D</t>
-  </si>
-  <si>
-    <t>Forfar,W W D D D L D W D W W W L W W W W</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W W D W W D W W W W D W W W W W</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,L D L D L W L L D W W W W L L D D</t>
-  </si>
-  <si>
-    <t>Stirling,W L L W W W D W W D D L L L L L L</t>
-  </si>
-  <si>
-    <t>Stranraer,D L L D W L W L W D L D L W W W L</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 2 0 0 1 2 0 1 0 2 4 1 1 1 2 1 0,(20)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0 3 3 1 3 1 2 1 1 0 1 2 0 1 1 4 3,(27)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 3 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0,(10)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 0 1 0 2 1 2 3 1 2 0 3 2 1 0 2 0,(20)</t>
-  </si>
-  <si>
-    <t>Elgin,1 1 3 1 0 1 0 2 0 0 1 1 0 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 2 1 1 0 1 3 1 2 3 2 0 3 3 2 4,(32)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 3 2 1 4 1 3 1 2 3 1 1 1 2 6 4,(37)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 2 0 1 1 2 0 1 1 2 3 3 2 0 1 2 2,(23)</t>
-  </si>
-  <si>
-    <t>Stirling,1 1 1 3 2 1 2 4 2 1 1 1 0 1 0 0 2,(23)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 0 1 2 0 2 0 1 1 2 2 1 1 4 2 0,(20)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 2 3 1 2 1 3 3 1 0 0 3 0 1 3 6 0,(29)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 0 1 0 1 2 0 3 2 2 0 2 2 1 0 1 2,(21)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 1 1 3 2 2 1 4 1 2 1 1 1 3 0 2 0,(27)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 0 1 0 0 2 1 1 3 4 1 1 1 1 2 4,(26)</t>
-  </si>
-  <si>
-    <t>Elgin,1 3 0 1 2 1 2 1 2 2 2 0 1 1 4 2,(25)</t>
-  </si>
-  <si>
-    <t>Forfar,0 0 2 1 1 1 1 1 1 0 2 1 1 0 2 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,0 1 2 0 1 1 0 0 1 2 1 0 0 0 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 2 1 1 4 1 2 2 1 0 1 1 0 2 4 2 2,(27)</t>
-  </si>
-  <si>
-    <t>Stirling,0 3 3 0 1 0 2 0 0 1 1 3 1 2 1 2 3,(23)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 3 3 1 1 1 0 1 0 1 3 2 3 0 1 0 4,(25)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 4 3 1 3 3 3 4 1 2 4 4 1 2 5 7 0,(49)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 3 4 1 4 3 2 4 3 2 1 4 2 2 1 5 5,(48)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 4 2 4 3 3 2 4 2 2 1 1 1 3 1 2 0,(37)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 1 1 2 1 4 4 2 5 4 4 3 2 1 4 4,(46)</t>
-  </si>
-  <si>
-    <t>Elgin,2 4 3 2 2 2 2 3 2 2 3 1 1 2 5 4,(40)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 4 2 2 1 2 4 2 2 5 3 1 3 5 2 4,(46)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 4 4 1 5 2 3 1 3 5 2 1 1 2 7 4,(47)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 4 1 2 5 3 2 3 2 2 4 4 2 2 5 4 4,(50)</t>
-  </si>
-  <si>
-    <t>Stirling,1 4 4 3 3 1 4 4 2 2 2 4 1 3 1 2 5,(46)</t>
-  </si>
-  <si>
-    <t>Stranraer,2 3 3 2 3 1 2 1 1 2 5 4 4 1 5 2 4,(45)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2-0 2-2 3-0 0-1 2-1 2-1 0-3 3-1 1-0 2-0 0-4 3-1 1-0 1-1 2-3 6-1 0-0</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0-2 0-3 3-1 0-1 1-3 1-2 0-2 1-3 2-1 2-0 1-0 2-2 2-0 1-1 0-1 4-1 2-3</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2-0 3-1 1-1 1-3 1-2 2-1 1-1 4-0 1-1 0-2 1-0 0-1 1-0 3-0 1-0 2-0 0-0</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2-0 2-0 1-0 1-0 2-0 0-1 2-2 1-3 1-1 2-3 0-4 3-1 1-2 1-1 0-1 2-2 0-4</t>
-  </si>
-  <si>
-    <t>Elgin,1-1 3-1 3-0 1-1 2-0 1-1 0-2 1-2 0-2 2-0 2-1 1-0 1-0 1-1 4-1 2-2</t>
-  </si>
-  <si>
-    <t>Forfar,0-2 2-0 2-2 1-1 1-1 1-0 1-1 3-1 1-1 2-0 2-3 2-1 1-0 3-0 2-3 2-0 0-4</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2-0 1-3 2-2 1-0 1-4 1-1 0-3 1-0 2-1 2-3 1-1 0-1 1-0 2-0 6-1 0-4</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0-1 2-2 1-0 1-1 1-4 1-2 2-0 1-2 1-1 0-2 1-3 3-1 2-0 2-0 1-4 2-2 2-2</t>
-  </si>
-  <si>
-    <t>Stirling,0-1 1-3 3-1 0-3 2-1 1-0 2-2 4-0 0-2 1-1 1-1 1-3 1-0 1-2 1-0 2-0 2-3</t>
-  </si>
-  <si>
-    <t>Stranraer,1-1 0-3 0-3 1-1 1-2 0-1 2-0 1-0 1-0 1-1 2-3 2-2 3-1 1-0 1-4 2-0 0-4</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 0 -3 -1 -1 1 -3 -2 -1 2 4 -2 1 0 -1 -5 0,(-9)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,-2 3 2 1 2 -1 2 -2 -1 -2 1 0 -2 0 1 3 1,(6)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,-2 2 0 -2 -1 -1 0 -4 0 -2 -1 -1 -1 -3 1 -2 0,(-17)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,-2 -2 1 -1 2 1 0 2 0 -1 -4 2 1 0 -1 0 -4,(-6)</t>
-  </si>
-  <si>
-    <t>Elgin,0 -2 3 0 -2 0 -2 1 -2 -2 -1 1 -1 0 -3 0,(-10)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 0 0 0 -1 0 2 0 2 1 1 -1 3 1 2 4,(18)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 2 0 1 3 0 3 1 1 1 0 1 1 2 5 4,(27)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,-1 0 -1 0 -3 1 -2 -1 0 2 2 2 2 -2 -3 0 0,(-4)</t>
-  </si>
-  <si>
-    <t>Stirling,1 -2 -2 3 1 1 0 4 2 0 0 -2 -1 -1 -1 -2 -1,(0)</t>
-  </si>
-  <si>
-    <t>Stranraer,0 -3 -3 0 1 -1 2 -1 1 0 -1 0 -2 1 3 2 -4,(-5)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Edinburgh City(4) Stenhousemuir(7) Elgin(9) Annan Athletic(3) Stirling(6) Cowdenbeath(10) Kelty Hearts(1) Forfar(2) Stranraer(5) Elgin(9) Edinburgh City(4) Stenhousemuir(7) Stirling(6) Annan Athletic(3) Forfar(2) Kelty Hearts(1) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Forfar(2) Stranraer(5) Stirling(6) Albion Rvs(8) Cowdenbeath(10) Stenhousemuir(7) Elgin(9) Edinburgh City(4) Kelty Hearts(1) Forfar(2) Cowdenbeath(10) Stranraer(5) Stenhousemuir(7) Albion Rvs(8) Edinburgh City(4) Elgin(9) Stirling(6)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Kelty Hearts(1) Elgin(9) Stenhousemuir(7) Annan Athletic(3) Stranraer(5) Albion Rvs(8) Forfar(2) Stirling(6) Edinburgh City(4) Stenhousemuir(7) Annan Athletic(3) Kelty Hearts(1) Elgin(9) Forfar(2) Stirling(6) Stranraer(5) Albion Rvs(8)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Albion Rvs(8) Forfar(2) Stenhousemuir(7) Kelty Hearts(1) Elgin(9) Stranraer(5) Stirling(6) Annan Athletic(3) Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(8) Stranraer(5) Stirling(6) Elgin(9) Annan Athletic(3) Stenhousemuir(7) Forfar(2)</t>
-  </si>
-  <si>
-    <t>Elgin,Stranraer(5) Cowdenbeath(10) Albion Rvs(8) Forfar(2) Edinburgh City(4) Kelty Hearts(1) Annan Athletic(3) Stenhousemuir(7) Stirling(6) Albion Rvs(8) Forfar(2) Cowdenbeath(10) Stranraer(5) Edinburgh City(4) Annan Athletic(3) Stenhousemuir(7)</t>
-  </si>
-  <si>
-    <t>Forfar,Annan Athletic(3) Edinburgh City(4) Kelty Hearts(1) Elgin(9) Stranraer(5) Stirling(6) Cowdenbeath(10) Albion Rvs(8) Stenhousemuir(7) Annan Athletic(3) Stranraer(5) Elgin(9) Kelty Hearts(1) Cowdenbeath(10) Albion Rvs(8) Stirling(6) Edinburgh City(4)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Cowdenbeath(10) Stirling(6) Forfar(2) Edinburgh City(4) Stenhousemuir(7) Elgin(9) Albion Rvs(8) Stranraer(5) Annan Athletic(3) Edinburgh City(4) Stirling(6) Cowdenbeath(10) Forfar(2) Stenhousemuir(7) Albion Rvs(8) Stranraer(5)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Stirling(6) Albion Rvs(8) Edinburgh City(4) Cowdenbeath(10) Kelty Hearts(1) Annan Athletic(3) Stranraer(5) Elgin(9) Forfar(2) Cowdenbeath(10) Stirling(6) Albion Rvs(8) Annan Athletic(3) Kelty Hearts(1) Stranraer(5) Edinburgh City(4) Elgin(9)</t>
-  </si>
-  <si>
-    <t>Stirling,Stenhousemuir(7) Kelty Hearts(1) Annan Athletic(3) Stranraer(5) Albion Rvs(8) Forfar(2) Edinburgh City(4) Cowdenbeath(10) Elgin(9) Stranraer(5) Kelty Hearts(1) Stenhousemuir(7) Albion Rvs(8) Edinburgh City(4) Cowdenbeath(10) Forfar(2) Annan Athletic(3)</t>
-  </si>
-  <si>
-    <t>Stranraer,Elgin(9) Annan Athletic(3) Stirling(6) Forfar(2) Cowdenbeath(10) Edinburgh City(4) Stenhousemuir(7) Kelty Hearts(1) Albion Rvs(8) Stirling(6) Forfar(2) Annan Athletic(3) Edinburgh City(4) Elgin(9) Stenhousemuir(7) Cowdenbeath(10) Kelty Hearts(1)</t>
+    <t>Albion Rvs,L W D L L D</t>
+  </si>
+  <si>
+    <t>Annan Athletic,D L D W W W</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L L L W L D</t>
+  </si>
+  <si>
+    <t>Edinburgh City,W W D L D L</t>
+  </si>
+  <si>
+    <t>Elgin,L W L D L D</t>
+  </si>
+  <si>
+    <t>Forfar,W L W W W W</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,D W W W W W</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,W W L L D D</t>
+  </si>
+  <si>
+    <t>Stirling,L L L L L L</t>
+  </si>
+  <si>
+    <t>Stranraer,D L W W W L</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1 1 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 0 1 1 4 3,(11)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 0 0 1 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3 2 1 0 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Elgin,1 1 0 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Forfar,2 0 3 3 2 4,(14)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 1 1 2 6 4,(15)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,3 2 0 1 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Stirling,1 0 1 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Stranraer,2 1 1 4 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,3 0 1 3 6 0,(13)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 2 1 0 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 1 3 0 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1 1 1 1 2 4,(10)</t>
+  </si>
+  <si>
+    <t>Elgin,2 0 1 1 4 2,(10)</t>
+  </si>
+  <si>
+    <t>Forfar,1 1 0 2 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 0 0 0 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 0 2 4 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Stirling,3 1 2 1 2 3,(12)</t>
+  </si>
+  <si>
+    <t>Stranraer,2 3 0 1 0 4,(10)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,4 1 2 5 7 0,(19)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,4 2 2 1 5 5,(19)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 1 3 1 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,4 3 2 1 4 4,(18)</t>
+  </si>
+  <si>
+    <t>Elgin,3 1 1 2 5 4,(16)</t>
+  </si>
+  <si>
+    <t>Forfar,3 1 3 5 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,2 1 1 2 7 4,(17)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,4 2 2 5 4 4,(21)</t>
+  </si>
+  <si>
+    <t>Stirling,4 1 3 1 2 5,(16)</t>
+  </si>
+  <si>
+    <t>Stranraer,4 4 1 5 2 4,(20)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,3-1 1-0 1-1 2-3 6-1 0-0</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2-2 2-0 1-1 0-1 4-1 2-3</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0-1 1-0 3-0 1-0 2-0 0-0</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3-1 1-2 1-1 0-1 2-2 0-4</t>
+  </si>
+  <si>
+    <t>Elgin,2-1 1-0 1-0 1-1 4-1 2-2</t>
+  </si>
+  <si>
+    <t>Forfar,2-1 1-0 3-0 2-3 2-0 0-4</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1-1 0-1 1-0 2-0 6-1 0-4</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,3-1 2-0 2-0 1-4 2-2 2-2</t>
+  </si>
+  <si>
+    <t>Stirling,1-3 1-0 1-2 1-0 2-0 2-3</t>
+  </si>
+  <si>
+    <t>Stranraer,2-2 3-1 1-0 1-4 2-0 0-4</t>
+  </si>
+  <si>
+    <t>Albion Rvs,-2 1 0 -1 -5 0,(-7)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 -2 0 1 3 1,(3)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,-1 -1 -3 1 -2 0,(-6)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 0 -1 0 -4,(-2)</t>
+  </si>
+  <si>
+    <t>Elgin,-1 1 -1 0 -3 0,(-4)</t>
+  </si>
+  <si>
+    <t>Forfar,1 -1 3 1 2 4,(10)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,0 1 1 2 5 4,(13)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 2 -2 -3 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Stirling,-2 -1 -1 -1 -2 -1,(-8)</t>
+  </si>
+  <si>
+    <t>Stranraer,0 -2 1 3 2 -4,(0)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Stenhousemuir(7) Stirling(6) Annan Athletic(3) Forfar(2) Kelty Hearts(1) Cowdenbeath(10)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Stranraer(5) Stenhousemuir(7) Albion Rvs(8) Edinburgh City(4) Elgin(9) Stirling(6)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Kelty Hearts(1) Elgin(9) Forfar(2) Stirling(6) Stranraer(5) Albion Rvs(8)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Stranraer(5) Stirling(6) Elgin(9) Annan Athletic(3) Stenhousemuir(7) Forfar(2)</t>
+  </si>
+  <si>
+    <t>Elgin,Forfar(2) Cowdenbeath(10) Stranraer(5) Edinburgh City(4) Annan Athletic(3) Stenhousemuir(7)</t>
+  </si>
+  <si>
+    <t>Forfar,Elgin(9) Kelty Hearts(1) Cowdenbeath(10) Albion Rvs(8) Stirling(6) Edinburgh City(4)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,Stirling(6) Cowdenbeath(10) Forfar(2) Stenhousemuir(7) Albion Rvs(8) Stranraer(5)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Albion Rvs(8) Annan Athletic(3) Kelty Hearts(1) Stranraer(5) Edinburgh City(4) Elgin(9)</t>
+  </si>
+  <si>
+    <t>Stirling,Stenhousemuir(7) Albion Rvs(8) Edinburgh City(4) Cowdenbeath(10) Forfar(2) Annan Athletic(3)</t>
+  </si>
+  <si>
+    <t>Stranraer,Annan Athletic(3) Edinburgh City(4) Elgin(9) Stenhousemuir(7) Cowdenbeath(10) Kelty Hearts(1)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -783,214 +783,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Albion Rvs,W D L L L W L L L W W L W D L L D W</t>
-  </si>
-  <si>
-    <t>Annan Athletic,L W W W W L W L L L W D L D W W W W</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,L W D L L L D L D L L L L L W L D L</t>
-  </si>
-  <si>
-    <t>Edinburgh City,L L W L W W D W D L L W W D L D L W</t>
-  </si>
-  <si>
-    <t>Elgin,D L W D L D L W L L L W L D L D W</t>
-  </si>
-  <si>
-    <t>Forfar,W W D D D L D W D W W W L W W W W L</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W W D W W D W W W W D W W W W W L</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,L D L D L W L L D W W W W L L D D W</t>
-  </si>
-  <si>
-    <t>Stirling,W L L W W W D W W D D L L L L L L L</t>
-  </si>
-  <si>
-    <t>Stranraer,D L L D W L W L W D L D L W W W L L</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 2 0 0 1 2 0 1 0 2 4 1 1 1 2 1 0 3,(23)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0 3 3 1 3 1 2 1 1 0 1 2 0 1 1 4 3 5,(32)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 3 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 0 1 0 2 1 2 3 1 2 0 3 2 1 0 2 0 2,(22)</t>
-  </si>
-  <si>
-    <t>Elgin,1 1 3 1 0 1 0 2 0 0 1 1 0 1 1 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 2 1 1 0 1 3 1 2 3 2 0 3 3 2 4 3,(35)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 3 2 1 4 1 3 1 2 3 1 1 1 2 6 4 1,(38)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 2 0 1 1 2 0 1 1 2 3 3 2 0 1 2 2 4,(27)</t>
-  </si>
-  <si>
-    <t>Stirling,1 1 1 3 2 1 2 4 2 1 1 1 0 1 0 0 2 0,(23)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 0 1 2 0 2 0 1 1 2 2 1 1 4 2 0 2,(22)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 2 3 1 2 1 3 3 1 0 0 3 0 1 3 6 0 2,(31)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 0 1 0 1 2 0 3 2 2 0 2 2 1 0 1 2 1,(22)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 1 1 3 2 2 1 4 1 2 1 1 1 3 0 2 0 2,(29)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 0 1 0 0 2 1 1 3 4 1 1 1 1 2 4 1,(27)</t>
-  </si>
-  <si>
-    <t>Elgin,1 3 0 1 2 1 2 1 2 2 2 0 1 1 4 2 0,(25)</t>
-  </si>
-  <si>
-    <t>Forfar,0 0 2 1 1 1 1 1 1 0 2 1 1 0 2 0 0 4,(18)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,0 1 2 0 1 1 0 0 1 2 1 0 0 0 1 0 5,(15)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 2 1 1 4 1 2 2 1 0 1 1 0 2 4 2 2 3,(30)</t>
-  </si>
-  <si>
-    <t>Stirling,0 3 3 0 1 0 2 0 0 1 1 3 1 2 1 2 3 1,(24)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 3 3 1 1 1 0 1 0 1 3 2 3 0 1 0 4 3,(28)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 4 3 1 3 3 3 4 1 2 4 4 1 2 5 7 0 5,(54)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 3 4 1 4 3 2 4 3 2 1 4 2 2 1 5 5 6,(54)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2 4 2 4 3 3 2 4 2 2 1 1 1 3 1 2 0 3,(40)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2 2 1 1 2 1 4 4 2 5 4 4 3 2 1 4 4 3,(49)</t>
-  </si>
-  <si>
-    <t>Elgin,2 4 3 2 2 2 2 3 2 2 3 1 1 2 5 4 1,(41)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 4 2 2 1 2 4 2 2 5 3 1 3 5 2 4 7,(53)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 4 4 1 5 2 3 1 3 5 2 1 1 2 7 4 6,(53)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,1 4 1 2 5 3 2 3 2 2 4 4 2 2 5 4 4 7,(57)</t>
-  </si>
-  <si>
-    <t>Stirling,1 4 4 3 3 1 4 4 2 2 2 4 1 3 1 2 5 1,(47)</t>
-  </si>
-  <si>
-    <t>Stranraer,2 3 3 2 3 1 2 1 1 2 5 4 4 1 5 2 4 5,(50)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2-0 2-2 3-0 0-1 2-1 2-1 0-3 3-1 1-0 2-0 0-4 3-1 1-0 1-1 2-3 6-1 0-0 3-2</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0-2 0-3 3-1 0-1 1-3 1-2 0-2 1-3 2-1 2-0 1-0 2-2 2-0 1-1 0-1 4-1 2-3 5-1</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,2-0 3-1 1-1 1-3 1-2 2-1 1-1 4-0 1-1 0-2 1-0 0-1 1-0 3-0 1-0 2-0 0-0 1-2</t>
-  </si>
-  <si>
-    <t>Edinburgh City,2-0 2-0 1-0 1-0 2-0 0-1 2-2 1-3 1-1 2-3 0-4 3-1 1-2 1-1 0-1 2-2 0-4 1-2</t>
-  </si>
-  <si>
-    <t>Elgin,1-1 3-1 3-0 1-1 2-0 1-1 0-2 1-2 0-2 2-0 2-1 1-0 1-0 1-1 4-1 2-2 0-1</t>
-  </si>
-  <si>
-    <t>Forfar,0-2 2-0 2-2 1-1 1-1 1-0 1-1 3-1 1-1 2-0 2-3 2-1 1-0 3-0 2-3 2-0 0-4 3-4</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2-0 1-3 2-2 1-0 1-4 1-1 0-3 1-0 2-1 2-3 1-1 0-1 1-0 2-0 6-1 0-4 5-1</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0-1 2-2 1-0 1-1 1-4 1-2 2-0 1-2 1-1 0-2 1-3 3-1 2-0 2-0 1-4 2-2 2-2 3-4</t>
-  </si>
-  <si>
-    <t>Stirling,0-1 1-3 3-1 0-3 2-1 1-0 2-2 4-0 0-2 1-1 1-1 1-3 1-0 1-2 1-0 2-0 2-3 0-1</t>
-  </si>
-  <si>
-    <t>Stranraer,1-1 0-3 0-3 1-1 1-2 0-1 2-0 1-0 1-0 1-1 2-3 2-2 3-1 1-0 1-4 2-0 0-4 3-2</t>
-  </si>
-  <si>
-    <t>Albion Rvs,2 0 -3 -1 -1 1 -3 -2 -1 2 4 -2 1 0 -1 -5 0 1,(-8)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,-2 3 2 1 2 -1 2 -2 -1 -2 1 0 -2 0 1 3 1 4,(10)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,-2 2 0 -2 -1 -1 0 -4 0 -2 -1 -1 -1 -3 1 -2 0 -1,(-18)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,-2 -2 1 -1 2 1 0 2 0 -1 -4 2 1 0 -1 0 -4 1,(-5)</t>
-  </si>
-  <si>
-    <t>Elgin,0 -2 3 0 -2 0 -2 1 -2 -2 -1 1 -1 0 -3 0 1,(-9)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 0 0 0 -1 0 2 0 2 1 1 -1 3 1 2 4 -1,(17)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,2 2 0 1 3 0 3 1 1 1 0 1 1 2 5 4 -4,(23)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,-1 0 -1 0 -3 1 -2 -1 0 2 2 2 2 -2 -3 0 0 1,(-3)</t>
-  </si>
-  <si>
-    <t>Stirling,1 -2 -2 3 1 1 0 4 2 0 0 -2 -1 -1 -1 -2 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Stranraer,0 -3 -3 0 1 -1 2 -1 1 0 -1 0 -2 1 3 2 -4 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Edinburgh City(4) Stenhousemuir(5) Elgin(9) Annan Athletic(3) Stirling(8) Cowdenbeath(10) Kelty Hearts(1) Forfar(2) Stranraer(6) Elgin(9) Edinburgh City(4) Stenhousemuir(5) Stirling(8) Annan Athletic(3) Forfar(2) Kelty Hearts(1) Cowdenbeath(10) Stranraer(6)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Forfar(2) Stranraer(6) Stirling(8) Albion Rvs(7) Cowdenbeath(10) Stenhousemuir(5) Elgin(9) Edinburgh City(4) Kelty Hearts(1) Forfar(2) Cowdenbeath(10) Stranraer(6) Stenhousemuir(5) Albion Rvs(7) Edinburgh City(4) Elgin(9) Stirling(8) Kelty Hearts(1)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Kelty Hearts(1) Elgin(9) Stenhousemuir(5) Annan Athletic(3) Stranraer(6) Albion Rvs(7) Forfar(2) Stirling(8) Edinburgh City(4) Stenhousemuir(5) Annan Athletic(3) Kelty Hearts(1) Elgin(9) Forfar(2) Stirling(8) Stranraer(6) Albion Rvs(7) Edinburgh City(4)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Albion Rvs(7) Forfar(2) Stenhousemuir(5) Kelty Hearts(1) Elgin(9) Stranraer(6) Stirling(8) Annan Athletic(3) Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(7) Stranraer(6) Stirling(8) Elgin(9) Annan Athletic(3) Stenhousemuir(5) Forfar(2) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Elgin,Stranraer(6) Cowdenbeath(10) Albion Rvs(7) Forfar(2) Edinburgh City(4) Kelty Hearts(1) Annan Athletic(3) Stenhousemuir(5) Stirling(8) Albion Rvs(7) Forfar(2) Cowdenbeath(10) Stranraer(6) Edinburgh City(4) Annan Athletic(3) Stenhousemuir(5) Stirling(8)</t>
-  </si>
-  <si>
-    <t>Forfar,Annan Athletic(3) Edinburgh City(4) Kelty Hearts(1) Elgin(9) Stranraer(6) Stirling(8) Cowdenbeath(10) Albion Rvs(7) Stenhousemuir(5) Annan Athletic(3) Stranraer(6) Elgin(9) Kelty Hearts(1) Cowdenbeath(10) Albion Rvs(7) Stirling(8) Edinburgh City(4) Stenhousemuir(5)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Cowdenbeath(10) Stirling(8) Forfar(2) Edinburgh City(4) Stenhousemuir(5) Elgin(9) Albion Rvs(7) Stranraer(6) Annan Athletic(3) Edinburgh City(4) Stirling(8) Cowdenbeath(10) Forfar(2) Stenhousemuir(5) Albion Rvs(7) Stranraer(6) Annan Athletic(3)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Stirling(8) Albion Rvs(7) Edinburgh City(4) Cowdenbeath(10) Kelty Hearts(1) Annan Athletic(3) Stranraer(6) Elgin(9) Forfar(2) Cowdenbeath(10) Stirling(8) Albion Rvs(7) Annan Athletic(3) Kelty Hearts(1) Stranraer(6) Edinburgh City(4) Elgin(9) Forfar(2)</t>
-  </si>
-  <si>
-    <t>Stirling,Stenhousemuir(5) Kelty Hearts(1) Annan Athletic(3) Stranraer(6) Albion Rvs(7) Forfar(2) Edinburgh City(4) Cowdenbeath(10) Elgin(9) Stranraer(6) Kelty Hearts(1) Stenhousemuir(5) Albion Rvs(7) Edinburgh City(4) Cowdenbeath(10) Forfar(2) Annan Athletic(3) Elgin(9)</t>
-  </si>
-  <si>
-    <t>Stranraer,Elgin(9) Annan Athletic(3) Stirling(8) Forfar(2) Cowdenbeath(10) Edinburgh City(4) Stenhousemuir(5) Kelty Hearts(1) Albion Rvs(7) Stirling(8) Forfar(2) Annan Athletic(3) Edinburgh City(4) Elgin(9) Stenhousemuir(5) Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(7)</t>
+    <t>Albion Rvs,W D L L D W</t>
+  </si>
+  <si>
+    <t>Annan Athletic,L D W W W W</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,L L W L D L</t>
+  </si>
+  <si>
+    <t>Edinburgh City,W D L D L W</t>
+  </si>
+  <si>
+    <t>Elgin,W L D L D W</t>
+  </si>
+  <si>
+    <t>Forfar,L W W W W L</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,W W W W W L</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,W L L D D W</t>
+  </si>
+  <si>
+    <t>Stirling,L L L L L L</t>
+  </si>
+  <si>
+    <t>Stranraer,L W W W L L</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1 1 2 1 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,0 1 1 4 3 5,(14)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,0 0 1 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,2 1 0 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Elgin,1 0 1 1 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Forfar,0 3 3 2 4 3,(15)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 1 2 6 4 1,(15)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 0 1 2 2 4,(11)</t>
+  </si>
+  <si>
+    <t>Stirling,0 1 0 0 2 0,(3)</t>
+  </si>
+  <si>
+    <t>Stranraer,1 1 4 2 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,0 1 3 6 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 1 0 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 3 0 2 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1 1 1 2 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Elgin,0 1 1 4 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Forfar,1 0 2 0 0 4,(7)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,0 0 0 1 0 5,(6)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,0 2 4 2 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Stirling,1 2 1 2 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Stranraer,3 0 1 0 4 3,(11)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1 2 5 7 0 5,(20)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2 2 1 5 5 6,(21)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 3 1 2 0 3,(10)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,3 2 1 4 4 3,(17)</t>
+  </si>
+  <si>
+    <t>Elgin,1 1 2 5 4 1,(14)</t>
+  </si>
+  <si>
+    <t>Forfar,1 3 5 2 4 7,(22)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 1 2 7 4 6,(21)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 2 5 4 4 7,(24)</t>
+  </si>
+  <si>
+    <t>Stirling,1 3 1 2 5 1,(13)</t>
+  </si>
+  <si>
+    <t>Stranraer,4 1 5 2 4 5,(21)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1-0 1-1 2-3 6-1 0-0 3-2</t>
+  </si>
+  <si>
+    <t>Annan Athletic,2-0 1-1 0-1 4-1 2-3 5-1</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1-0 3-0 1-0 2-0 0-0 1-2</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1-2 1-1 0-1 2-2 0-4 1-2</t>
+  </si>
+  <si>
+    <t>Elgin,1-0 1-0 1-1 4-1 2-2 0-1</t>
+  </si>
+  <si>
+    <t>Forfar,1-0 3-0 2-3 2-0 0-4 3-4</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,0-1 1-0 2-0 6-1 0-4 5-1</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2-0 2-0 1-4 2-2 2-2 3-4</t>
+  </si>
+  <si>
+    <t>Stirling,1-0 1-2 1-0 2-0 2-3 0-1</t>
+  </si>
+  <si>
+    <t>Stranraer,3-1 1-0 1-4 2-0 0-4 3-2</t>
+  </si>
+  <si>
+    <t>Albion Rvs,1 0 -1 -5 0 1,(-4)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,-2 0 1 3 1 4,(7)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,-1 -3 1 -2 0 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1 0 -1 0 -4 1,(-3)</t>
+  </si>
+  <si>
+    <t>Elgin,1 -1 0 -3 0 1,(-2)</t>
+  </si>
+  <si>
+    <t>Forfar,-1 3 1 2 4 -1,(8)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 1 2 5 4 -4,(9)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,2 -2 -3 0 0 1,(-2)</t>
+  </si>
+  <si>
+    <t>Stirling,-1 -1 -1 -2 -1 -1,(-7)</t>
+  </si>
+  <si>
+    <t>Stranraer,-2 1 3 2 -4 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Albion Rvs,Stirling(8) Annan Athletic(3) Forfar(2) Kelty Hearts(1) Cowdenbeath(10) Stranraer(6)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,Stenhousemuir(5) Albion Rvs(7) Edinburgh City(4) Elgin(9) Stirling(8) Kelty Hearts(1)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,Elgin(9) Forfar(2) Stirling(8) Stranraer(6) Albion Rvs(7) Edinburgh City(4)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,Stirling(8) Elgin(9) Annan Athletic(3) Stenhousemuir(5) Forfar(2) Cowdenbeath(10)</t>
+  </si>
+  <si>
+    <t>Elgin,Cowdenbeath(10) Stranraer(6) Edinburgh City(4) Annan Athletic(3) Stenhousemuir(5) Stirling(8)</t>
+  </si>
+  <si>
+    <t>Forfar,Kelty Hearts(1) Cowdenbeath(10) Albion Rvs(7) Stirling(8) Edinburgh City(4) Stenhousemuir(5)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,Cowdenbeath(10) Forfar(2) Stenhousemuir(5) Albion Rvs(7) Stranraer(6) Annan Athletic(3)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,Annan Athletic(3) Kelty Hearts(1) Stranraer(6) Edinburgh City(4) Elgin(9) Forfar(2)</t>
+  </si>
+  <si>
+    <t>Stirling,Albion Rvs(7) Edinburgh City(4) Cowdenbeath(10) Forfar(2) Annan Athletic(3) Elgin(9)</t>
+  </si>
+  <si>
+    <t>Stranraer,Edinburgh City(4) Elgin(9) Stenhousemuir(5) Cowdenbeath(10) Kelty Hearts(1) Albion Rvs(7)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="303">
   <si>
     <t>Team</t>
   </si>
@@ -121,6 +121,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -145,201 +148,201 @@
     <t>38</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>sc3_teams</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>sc3_teams</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>25.5</t>
   </si>
   <si>
-    <t>26.5</t>
-  </si>
-  <si>
     <t>23.5</t>
   </si>
   <si>
@@ -349,16 +352,10 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>53.5</t>
+    <t>44.5</t>
   </si>
   <si>
     <t>55.5</t>
@@ -370,229 +367,235 @@
     <t>57</t>
   </si>
   <si>
-    <t>47</t>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>2.3182</t>
+  </si>
+  <si>
+    <t>2.2609</t>
+  </si>
+  <si>
+    <t>1.7273</t>
+  </si>
+  <si>
+    <t>1.8542</t>
+  </si>
+  <si>
+    <t>2.413</t>
+  </si>
+  <si>
+    <t>2.6818</t>
+  </si>
+  <si>
+    <t>2.4783</t>
+  </si>
+  <si>
+    <t>1.9783</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>X2021.07.31</t>
+  </si>
+  <si>
+    <t>X2021.08.07</t>
+  </si>
+  <si>
+    <t>X2021.08.13</t>
+  </si>
+  <si>
+    <t>X2021.08.14</t>
+  </si>
+  <si>
+    <t>X2021.08.21</t>
+  </si>
+  <si>
+    <t>X2021.08.27</t>
+  </si>
+  <si>
+    <t>X2021.08.28</t>
+  </si>
+  <si>
+    <t>X2021.08.31</t>
+  </si>
+  <si>
+    <t>X2021.09.11</t>
+  </si>
+  <si>
+    <t>X2021.09.17</t>
+  </si>
+  <si>
+    <t>X2021.09.18</t>
+  </si>
+  <si>
+    <t>X2021.09.25</t>
+  </si>
+  <si>
+    <t>X2021.10.01</t>
+  </si>
+  <si>
+    <t>X2021.10.02</t>
+  </si>
+  <si>
+    <t>X2021.10.15</t>
+  </si>
+  <si>
+    <t>X2021.10.16</t>
+  </si>
+  <si>
+    <t>X2021.10.30</t>
+  </si>
+  <si>
+    <t>X2021.11.05</t>
+  </si>
+  <si>
+    <t>X2021.11.06</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
+  </si>
+  <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.11.20</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
+  </si>
+  <si>
+    <t>X2021.12.03</t>
+  </si>
+  <si>
+    <t>X2021.12.04</t>
+  </si>
+  <si>
+    <t>X2021.12.11</t>
+  </si>
+  <si>
+    <t>X2021.12.17</t>
+  </si>
+  <si>
+    <t>X2021.12.18</t>
+  </si>
+  <si>
+    <t>X2021.12.21</t>
+  </si>
+  <si>
+    <t>X2021.12.22</t>
+  </si>
+  <si>
+    <t>X2021.12.26</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.15</t>
+  </si>
+  <si>
+    <t>X2022.01.22</t>
+  </si>
+  <si>
+    <t>X2022.01.25</t>
+  </si>
+  <si>
+    <t>X2022.01.29</t>
+  </si>
+  <si>
+    <t>X2022.01.31</t>
+  </si>
+  <si>
+    <t>X2022.02.05</t>
+  </si>
+  <si>
+    <t>X2022.02.11</t>
+  </si>
+  <si>
+    <t>X2022.02.12</t>
+  </si>
+  <si>
+    <t>sc3_hytotals</t>
+  </si>
+  <si>
+    <t>sc3_aytotals</t>
+  </si>
+  <si>
+    <t>sc3_totalyellows</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>39.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>61.5</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>56.5</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>2.3182</t>
-  </si>
-  <si>
-    <t>2.2609</t>
-  </si>
-  <si>
-    <t>1.7273</t>
-  </si>
-  <si>
-    <t>2.4318</t>
-  </si>
-  <si>
-    <t>1.913</t>
-  </si>
-  <si>
-    <t>2.413</t>
-  </si>
-  <si>
-    <t>2.6818</t>
-  </si>
-  <si>
-    <t>2.4783</t>
-  </si>
-  <si>
-    <t>2.1364</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>X2021.07.31</t>
-  </si>
-  <si>
-    <t>X2021.08.07</t>
-  </si>
-  <si>
-    <t>X2021.08.13</t>
-  </si>
-  <si>
-    <t>X2021.08.14</t>
-  </si>
-  <si>
-    <t>X2021.08.21</t>
-  </si>
-  <si>
-    <t>X2021.08.27</t>
-  </si>
-  <si>
-    <t>X2021.08.28</t>
-  </si>
-  <si>
-    <t>X2021.08.31</t>
-  </si>
-  <si>
-    <t>X2021.09.11</t>
-  </si>
-  <si>
-    <t>X2021.09.17</t>
-  </si>
-  <si>
-    <t>X2021.09.18</t>
-  </si>
-  <si>
-    <t>X2021.09.25</t>
-  </si>
-  <si>
-    <t>X2021.10.01</t>
-  </si>
-  <si>
-    <t>X2021.10.02</t>
-  </si>
-  <si>
-    <t>X2021.10.15</t>
-  </si>
-  <si>
-    <t>X2021.10.16</t>
-  </si>
-  <si>
-    <t>X2021.10.30</t>
-  </si>
-  <si>
-    <t>X2021.11.05</t>
-  </si>
-  <si>
-    <t>X2021.11.06</t>
-  </si>
-  <si>
-    <t>X2021.11.09</t>
-  </si>
-  <si>
-    <t>X2021.11.12</t>
-  </si>
-  <si>
-    <t>X2021.11.13</t>
-  </si>
-  <si>
-    <t>X2021.11.20</t>
-  </si>
-  <si>
-    <t>X2021.11.23</t>
-  </si>
-  <si>
-    <t>X2021.12.03</t>
-  </si>
-  <si>
-    <t>X2021.12.04</t>
-  </si>
-  <si>
-    <t>X2021.12.11</t>
-  </si>
-  <si>
-    <t>X2021.12.17</t>
-  </si>
-  <si>
-    <t>X2021.12.18</t>
-  </si>
-  <si>
-    <t>X2021.12.21</t>
-  </si>
-  <si>
-    <t>X2021.12.22</t>
-  </si>
-  <si>
-    <t>X2021.12.26</t>
-  </si>
-  <si>
-    <t>X2022.01.02</t>
-  </si>
-  <si>
-    <t>X2022.01.07</t>
-  </si>
-  <si>
-    <t>X2022.01.08</t>
-  </si>
-  <si>
-    <t>X2022.01.15</t>
-  </si>
-  <si>
-    <t>X2022.01.22</t>
-  </si>
-  <si>
-    <t>X2022.01.25</t>
-  </si>
-  <si>
-    <t>X2022.01.29</t>
-  </si>
-  <si>
-    <t>X2022.01.31</t>
-  </si>
-  <si>
-    <t>X2022.02.05</t>
-  </si>
-  <si>
-    <t>sc3_hytotals</t>
-  </si>
-  <si>
-    <t>sc3_aytotals</t>
-  </si>
-  <si>
-    <t>sc3_totalyellows</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>40.5</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>70.5</t>
-  </si>
-  <si>
-    <t>61.5</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>56.5</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>75.5</t>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>76</t>
   </si>
   <si>
     <t>2.1818</t>
@@ -604,7 +607,10 @@
     <t>2.7955</t>
   </si>
   <si>
-    <t>2.5227</t>
+    <t>2.4348</t>
+  </si>
+  <si>
+    <t>2.8958</t>
   </si>
   <si>
     <t>2.4565</t>
@@ -616,10 +622,10 @@
     <t>2.6739</t>
   </si>
   <si>
-    <t>3.2273</t>
-  </si>
-  <si>
-    <t>3.1458</t>
+    <t>3.1087</t>
+  </si>
+  <si>
+    <t>3.04</t>
   </si>
   <si>
     <t>sc3_hrtotals</t>
@@ -646,10 +652,10 @@
     <t>0.0682</t>
   </si>
   <si>
-    <t>0.1136</t>
-  </si>
-  <si>
-    <t>0.1739</t>
+    <t>0.1087</t>
+  </si>
+  <si>
+    <t>0.1667</t>
   </si>
   <si>
     <t>0.0455</t>
@@ -658,10 +664,10 @@
     <t>0.1304</t>
   </si>
   <si>
-    <t>0.2273</t>
-  </si>
-  <si>
-    <t>0.1875</t>
+    <t>0.2174</t>
+  </si>
+  <si>
+    <t>0.18</t>
   </si>
   <si>
     <t>sc3_un05</t>
@@ -784,10 +790,10 @@
     <t>29.03%</t>
   </si>
   <si>
-    <t>43.33%</t>
-  </si>
-  <si>
-    <t>23.64%</t>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>22.22%</t>
   </si>
   <si>
     <t>50.94%</t>
@@ -805,9 +811,6 @@
     <t>21.05%</t>
   </si>
   <si>
-    <t>22.22%</t>
-  </si>
-  <si>
     <t>40.91%</t>
   </si>
   <si>
@@ -826,22 +829,25 @@
     <t>32.76%</t>
   </si>
   <si>
-    <t>29.41%</t>
+    <t>26.79%</t>
+  </si>
+  <si>
+    <t>36.21%</t>
+  </si>
+  <si>
+    <t>27.17%</t>
   </si>
   <si>
     <t>35.19%</t>
   </si>
   <si>
-    <t>27.17%</t>
-  </si>
-  <si>
     <t>21.43%</t>
   </si>
   <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>26.14%</t>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
   </si>
   <si>
     <t>43.14%</t>
@@ -853,49 +859,52 @@
     <t>30.36%</t>
   </si>
   <si>
-    <t>31.11%</t>
-  </si>
-  <si>
-    <t>27.93%</t>
+    <t>29.47%</t>
+  </si>
+  <si>
+    <t>28.70%</t>
   </si>
   <si>
     <t>34.04%</t>
   </si>
   <si>
+    <t>32.14%</t>
+  </si>
+  <si>
+    <t>26.09%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>28.33%</t>
+  </si>
+  <si>
+    <t>37.04%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>30.91%</t>
+  </si>
+  <si>
     <t>23.81%</t>
   </si>
   <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>38.89%</t>
-  </si>
-  <si>
-    <t>28.33%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>40.00%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>30.91%</t>
-  </si>
-  <si>
     <t>39.34%</t>
   </si>
   <si>
     <t>38.24%</t>
   </si>
   <si>
-    <t>25.93%</t>
-  </si>
-  <si>
-    <t>48.78%</t>
+    <t>25.86%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
   </si>
   <si>
     <t>33.94%</t>
@@ -907,10 +916,10 @@
     <t>32.35%</t>
   </si>
   <si>
-    <t>28.95%</t>
-  </si>
-  <si>
-    <t>33.01%</t>
+    <t>27.73%</t>
+  </si>
+  <si>
+    <t>33.64%</t>
   </si>
   <si>
     <t>33.87%</t>
@@ -919,10 +928,10 @@
     <t>35.64%</t>
   </si>
   <si>
-    <t>27.19%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
+    <t>27.12%</t>
+  </si>
+  <si>
+    <t>39.81%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1026,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>51</v>
@@ -1052,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1061,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>52</v>
@@ -1087,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1096,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -1119,10 +1128,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1131,16 +1140,16 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -1166,16 +1175,16 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -1192,25 +1201,25 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1224,7 +1233,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1233,19 +1242,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1259,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1268,19 +1277,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -1303,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>50</v>
@@ -1338,19 +1347,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
         <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -1372,16 +1381,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -1390,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -1402,19 +1411,19 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -1422,28 +1431,28 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -1452,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1464,7 +1473,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -1472,31 +1481,31 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1505,16 +1514,16 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1522,49 +1531,49 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -1572,49 +1581,49 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>96</v>
-      </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -1622,49 +1631,49 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1672,49 +1681,49 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1722,37 +1731,37 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
@@ -1764,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1772,34 +1781,34 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1814,7 +1823,7 @@
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1822,34 +1831,34 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -1861,10 +1870,10 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1872,49 +1881,49 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
       <c r="M11" t="s">
         <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1933,43 +1942,43 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -1983,34 +1992,34 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -2033,22 +2042,22 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -2071,16 +2080,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2095,13 +2104,13 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -2112,40 +2121,40 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -2156,40 +2165,40 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2200,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -2209,16 +2218,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -2244,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -2259,22 +2268,22 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -2288,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -2297,22 +2306,22 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -2335,34 +2344,34 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
         <v>10</v>
@@ -2376,7 +2385,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -2385,28 +2394,28 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
         <v>10</v>
@@ -2428,76 +2437,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -2532,13 +2541,13 @@
         <v>25.0</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>22.0</v>
@@ -2568,13 +2577,13 @@
         <v>37.0</v>
       </c>
       <c r="W2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="X2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Y2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -2609,13 +2618,13 @@
         <v>38.0</v>
       </c>
       <c r="K3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N3" t="n">
         <v>23.0</v>
@@ -2645,13 +2654,13 @@
         <v>28.0</v>
       </c>
       <c r="W3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="X3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -2686,13 +2695,13 @@
         <v>15.0</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N4" t="n">
         <v>22.0</v>
@@ -2722,13 +2731,13 @@
         <v>33.0</v>
       </c>
       <c r="W4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="X4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -2739,19 +2748,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="D5" t="n">
         <v>54.0</v>
       </c>
       <c r="E5" t="n">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="H5" t="n">
         <v>18.0</v>
@@ -2760,34 +2769,34 @@
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N5" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="O5" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="P5" t="n">
         <v>63.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>114.0</v>
+        <v>119.0</v>
       </c>
       <c r="R5" t="n">
         <v>18.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="T5" t="n">
         <v>15.0</v>
@@ -2799,13 +2808,13 @@
         <v>33.0</v>
       </c>
       <c r="W5" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="X5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Y5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -2816,19 +2825,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>55.0</v>
+        <v>63.0</v>
       </c>
       <c r="D6" t="n">
         <v>33.0</v>
       </c>
       <c r="E6" t="n">
-        <v>88.0</v>
+        <v>96.0</v>
       </c>
       <c r="F6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1818181818181819</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>10.0</v>
@@ -2837,34 +2846,34 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="J6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O6" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="P6" t="n">
         <v>61.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
       <c r="R6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.0</v>
       </c>
       <c r="T6" t="n">
         <v>24.0</v>
@@ -2873,16 +2882,16 @@
         <v>2.0</v>
       </c>
       <c r="V6" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="W6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="X6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Y6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
@@ -2917,13 +2926,13 @@
         <v>44.0</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N7" t="n">
         <v>23.0</v>
@@ -2953,13 +2962,13 @@
         <v>26.0</v>
       </c>
       <c r="W7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Y7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -2994,13 +3003,13 @@
         <v>50.0</v>
       </c>
       <c r="K8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N8" t="n">
         <v>22.0</v>
@@ -3030,13 +3039,13 @@
         <v>21.0</v>
       </c>
       <c r="W8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Y8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
@@ -3071,13 +3080,13 @@
         <v>34.0</v>
       </c>
       <c r="K9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N9" t="n">
         <v>23.0</v>
@@ -3107,13 +3116,13 @@
         <v>36.0</v>
       </c>
       <c r="W9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="X9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -3127,10 +3136,10 @@
         <v>39.0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="F10" t="n">
         <v>13.0</v>
@@ -3142,31 +3151,31 @@
         <v>15.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.25</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="J10" t="n">
         <v>28.0</v>
       </c>
       <c r="K10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N10" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="O10" t="n">
         <v>60.0</v>
       </c>
       <c r="P10" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.0</v>
+        <v>118.0</v>
       </c>
       <c r="R10" t="n">
         <v>17.0</v>
@@ -3175,22 +3184,22 @@
         <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="V10" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="W10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Y10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -3204,10 +3213,10 @@
         <v>57.0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="E11" t="n">
-        <v>111.0</v>
+        <v>115.0</v>
       </c>
       <c r="F11" t="n">
         <v>12.0</v>
@@ -3216,34 +3225,34 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5833333333333333</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N11" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O11" t="n">
         <v>54.0</v>
       </c>
       <c r="P11" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.0</v>
+        <v>103.0</v>
       </c>
       <c r="R11" t="n">
         <v>20.0</v>
@@ -3252,22 +3261,22 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="T11" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="V11" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="W11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="X11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Y11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3286,70 +3295,70 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -4078,70 +4087,70 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -4870,70 +4879,70 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -5662,70 +5671,70 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -6454,16 +6463,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -6472,7 +6481,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -6484,19 +6493,19 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="P1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -6504,7 +6513,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -6525,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -6534,19 +6543,19 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -6557,7 +6566,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -6575,7 +6584,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -6584,10 +6593,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -6596,7 +6605,7 @@
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -6604,13 +6613,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -6634,19 +6643,19 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -6663,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -6678,25 +6687,25 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -6704,7 +6713,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -6716,10 +6725,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -6731,22 +6740,22 @@
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -6763,13 +6772,13 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -6781,22 +6790,22 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -6813,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -6822,7 +6831,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -6834,19 +6843,19 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -6875,7 +6884,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -6887,16 +6896,16 @@
         <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -6922,31 +6931,31 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -6957,13 +6966,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -6978,25 +6987,25 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7015,126 +7024,132 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>143</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>144</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>145</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>146</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>147</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>148</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>156</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>157</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>158</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>159</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>160</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>161</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>165</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>166</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7143,13 +7158,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -7158,112 +7173,118 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X2" t="s">
         <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG2" t="s">
         <v>14</v>
       </c>
       <c r="AH2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK2" t="s">
         <v>10</v>
       </c>
       <c r="AL2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN2" t="s">
         <v>14</v>
       </c>
       <c r="AO2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -7277,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -7286,19 +7307,19 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -7307,13 +7328,13 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
         <v>11</v>
@@ -7322,16 +7343,16 @@
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" t="s">
         <v>13</v>
       </c>
       <c r="U3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W3" t="s">
         <v>12</v>
@@ -7340,37 +7361,37 @@
         <v>13</v>
       </c>
       <c r="Y3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="s">
         <v>11</v>
       </c>
       <c r="AA3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB3" t="s">
         <v>12</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
         <v>11</v>
       </c>
       <c r="AE3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH3" t="s">
         <v>14</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ3" t="s">
         <v>12</v>
@@ -7379,19 +7400,25 @@
         <v>10</v>
       </c>
       <c r="AL3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN3" t="s">
         <v>10</v>
       </c>
       <c r="AO3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP3" t="s">
         <v>12</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -7405,16 +7432,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -7423,10 +7450,10 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
@@ -7438,10 +7465,10 @@
         <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q4" t="s">
         <v>13</v>
@@ -7450,16 +7477,16 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
         <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
         <v>11</v>
@@ -7468,10 +7495,10 @@
         <v>11</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="s">
         <v>12</v>
@@ -7480,25 +7507,25 @@
         <v>15</v>
       </c>
       <c r="AC4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s">
         <v>13</v>
@@ -7510,16 +7537,22 @@
         <v>11</v>
       </c>
       <c r="AM4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN4" t="s">
         <v>11</v>
       </c>
       <c r="AO4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP4" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -7536,19 +7569,19 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -7557,40 +7590,40 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
         <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X5" t="s">
         <v>10</v>
@@ -7602,52 +7635,58 @@
         <v>11</v>
       </c>
       <c r="AA5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s">
         <v>10</v>
       </c>
       <c r="AG5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s">
         <v>11</v>
       </c>
       <c r="AL5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO5" t="s">
         <v>12</v>
       </c>
       <c r="AP5" t="s">
         <v>10</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -7658,13 +7697,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -7673,16 +7712,16 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -7691,31 +7730,31 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
         <v>11</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
         <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W6" t="s">
         <v>10</v>
@@ -7724,19 +7763,19 @@
         <v>14</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB6" t="s">
         <v>10</v>
       </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
         <v>11</v>
@@ -7745,10 +7784,10 @@
         <v>11</v>
       </c>
       <c r="AF6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH6" t="s">
         <v>12</v>
@@ -7757,13 +7796,13 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s">
         <v>10</v>
       </c>
       <c r="AL6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM6" t="s">
         <v>12</v>
@@ -7772,9 +7811,15 @@
         <v>11</v>
       </c>
       <c r="AO6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7786,10 +7831,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -7798,34 +7843,34 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
         <v>10</v>
@@ -7834,28 +7879,28 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
         <v>12</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
         <v>10</v>
@@ -7864,16 +7909,16 @@
         <v>12</v>
       </c>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s">
         <v>11</v>
@@ -7882,7 +7927,7 @@
         <v>14</v>
       </c>
       <c r="AI7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s">
         <v>11</v>
@@ -7891,19 +7936,25 @@
         <v>10</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s">
         <v>11</v>
       </c>
       <c r="AP7" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -7911,43 +7962,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
         <v>10</v>
@@ -7956,22 +8007,22 @@
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
         <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
         <v>10</v>
@@ -7980,46 +8031,46 @@
         <v>11</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s">
         <v>12</v>
       </c>
       <c r="AE8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s">
         <v>12</v>
       </c>
       <c r="AL8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s">
         <v>13</v>
@@ -8028,10 +8079,16 @@
         <v>10</v>
       </c>
       <c r="AO8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP8" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -8048,25 +8105,25 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -8075,22 +8132,22 @@
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
         <v>11</v>
@@ -8099,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="V9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" t="s">
         <v>10</v>
@@ -8108,28 +8165,28 @@
         <v>11</v>
       </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA9" t="s">
         <v>10</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD9" t="s">
         <v>11</v>
       </c>
       <c r="AE9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s">
         <v>12</v>
@@ -8138,7 +8195,7 @@
         <v>13</v>
       </c>
       <c r="AI9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s">
         <v>10</v>
@@ -8147,19 +8204,25 @@
         <v>12</v>
       </c>
       <c r="AL9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP9" t="s">
         <v>11</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -8173,7 +8236,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -8182,13 +8245,13 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -8197,19 +8260,19 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
         <v>12</v>
@@ -8218,16 +8281,16 @@
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
         <v>11</v>
       </c>
       <c r="U10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W10" t="s">
         <v>10</v>
@@ -8236,10 +8299,10 @@
         <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA10" t="s">
         <v>13</v>
@@ -8248,7 +8311,7 @@
         <v>11</v>
       </c>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD10" t="s">
         <v>13</v>
@@ -8257,16 +8320,16 @@
         <v>11</v>
       </c>
       <c r="AF10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH10" t="s">
         <v>12</v>
       </c>
       <c r="AI10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s">
         <v>11</v>
@@ -8275,19 +8338,25 @@
         <v>10</v>
       </c>
       <c r="AL10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP10" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -8301,16 +8370,16 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -8322,7 +8391,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -8331,13 +8400,13 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
         <v>10</v>
@@ -8346,46 +8415,46 @@
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
         <v>11</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
         <v>11</v>
       </c>
       <c r="W11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
         <v>11</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s">
         <v>12</v>
       </c>
       <c r="AE11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG11" t="s">
         <v>10</v>
@@ -8394,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="AI11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s">
         <v>11</v>
@@ -8406,16 +8475,22 @@
         <v>11</v>
       </c>
       <c r="AM11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN11" t="s">
         <v>10</v>
       </c>
       <c r="AO11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP11" t="s">
         <v>10</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8434,16 +8509,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -8452,7 +8527,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -8473,7 +8548,7 @@
         <v>170</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
         <v>171</v>
@@ -8484,13 +8559,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -8505,7 +8580,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -8514,19 +8589,19 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
@@ -8537,7 +8612,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -8552,31 +8627,31 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
         <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -8590,7 +8665,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -8617,16 +8692,16 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -8643,13 +8718,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -8658,25 +8733,25 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -8696,7 +8771,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -8711,22 +8786,22 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -8734,7 +8809,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -8743,13 +8818,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -8764,10 +8839,10 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
         <v>187</v>
@@ -8776,7 +8851,7 @@
         <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -8784,7 +8859,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -8796,13 +8871,13 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -8811,22 +8886,22 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -8843,7 +8918,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -8855,28 +8930,28 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O9" t="s">
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10">
@@ -8908,25 +8983,25 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -8943,7 +9018,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -8961,22 +9036,22 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8995,126 +9070,132 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>143</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>144</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>145</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>146</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>147</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>148</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>156</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>157</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>158</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>159</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>160</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>161</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>165</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>166</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9123,127 +9204,133 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
         <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK2" t="s">
         <v>10</v>
       </c>
       <c r="AL2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -9251,127 +9338,133 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH3" t="s">
         <v>11</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -9379,127 +9472,133 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s">
         <v>10</v>
       </c>
       <c r="AK4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN4" t="s">
         <v>10</v>
       </c>
       <c r="AO4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP4" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -9507,127 +9606,133 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -9635,127 +9740,133 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
         <v>10</v>
       </c>
       <c r="AE6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -9763,127 +9874,133 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP7" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -9891,127 +10008,133 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s">
         <v>10</v>
       </c>
       <c r="AH8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP8" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -10019,127 +10142,133 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH9" t="s">
         <v>10</v>
       </c>
       <c r="AI9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s">
         <v>10</v>
       </c>
       <c r="AO9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -10150,64 +10279,64 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W10" t="s">
         <v>10</v>
@@ -10216,58 +10345,64 @@
         <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD10" t="s">
         <v>10</v>
       </c>
       <c r="AE10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP10" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -10275,127 +10410,133 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG11" t="s">
         <v>10</v>
       </c>
       <c r="AH11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP11" t="s">
         <v>10</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -299,252 +299,252 @@
     <t>0</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>suml6_sc3_gc</t>
+  </si>
+  <si>
+    <t>sum_sc3_zero_gc</t>
+  </si>
+  <si>
+    <t>sum_sc3_one_gc</t>
+  </si>
+  <si>
+    <t>sum_sc3_two_gc</t>
+  </si>
+  <si>
+    <t>sum_sc3_three_gc</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm_negtwo</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm_negone</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm_zero</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm_posone</t>
+  </si>
+  <si>
+    <t>suml6_sc3_wm_postwo</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>suml6_sc3_tg</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>1.4375</t>
+  </si>
+  <si>
+    <t>1.6875</t>
+  </si>
+  <si>
+    <t>1.1094</t>
+  </si>
+  <si>
+    <t>1.4531</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.5156</t>
+  </si>
+  <si>
+    <t>1.5469</t>
+  </si>
+  <si>
+    <t>1.5938</t>
+  </si>
+  <si>
+    <t>1.2969</t>
+  </si>
+  <si>
+    <t>1.6406</t>
+  </si>
+  <si>
+    <t>sc3_hytotals</t>
+  </si>
+  <si>
+    <t>sc3_aytotals</t>
+  </si>
+  <si>
+    <t>sc3_totalyellows</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>33.5</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>suml6_sc3_gc</t>
-  </si>
-  <si>
-    <t>sum_sc3_zero_gc</t>
-  </si>
-  <si>
-    <t>sum_sc3_one_gc</t>
-  </si>
-  <si>
-    <t>sum_sc3_two_gc</t>
-  </si>
-  <si>
-    <t>sum_sc3_three_gc</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm_negtwo</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm_negone</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm_zero</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm_posone</t>
-  </si>
-  <si>
-    <t>suml6_sc3_wm_postwo</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>suml6_sc3_tg</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>41.5</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>1.4375</t>
-  </si>
-  <si>
-    <t>1.6875</t>
-  </si>
-  <si>
-    <t>1.1094</t>
-  </si>
-  <si>
-    <t>1.4531</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.5156</t>
-  </si>
-  <si>
-    <t>1.5469</t>
-  </si>
-  <si>
-    <t>1.5938</t>
-  </si>
-  <si>
-    <t>1.2969</t>
-  </si>
-  <si>
-    <t>1.6406</t>
-  </si>
-  <si>
-    <t>sc3_hytotals</t>
-  </si>
-  <si>
-    <t>sc3_aytotals</t>
-  </si>
-  <si>
-    <t>sc3_totalyellows</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
     <t>37.5</t>
   </si>
   <si>
@@ -944,34 +944,34 @@
     <t>Stranraer,D L W W L L</t>
   </si>
   <si>
-    <t>Albion Rvs,0 1 0 0 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,0 0 2 4 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 2 0 1 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 1 1 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Elgin,2 1 0 3 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Forfar,2 2 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,3 4 1 3 3 1,(15)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 2 2 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Stirling,1 0 2 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Stranraer,3 0 1 0 3 0,(7)</t>
+    <t>Albion Rvs,1 0 0 1 4 0,(6)</t>
+  </si>
+  <si>
+    <t>Annan Athletic,4 4 2 3 2 1,(16)</t>
+  </si>
+  <si>
+    <t>Cowdenbeath,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Edinburgh City,1 1 0 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Elgin,3 0 1 0 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Forfar,0 0 2 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Kelty Hearts,1 3 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Stenhousemuir,1 0 0 1 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Stirling,2 1 0 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Stranraer,0 1 3 2 0 0,(6)</t>
   </si>
   <si>
     <t>Albion Rvs,3 0 0 0 2 0,(5)</t>
@@ -3730,7 +3730,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -3751,7 +3751,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -3774,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
         <v>93</v>
@@ -3795,7 +3795,7 @@
         <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -3862,16 +3862,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -3906,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -3921,13 +3921,13 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -3971,13 +3971,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N7" t="s">
         <v>10</v>
@@ -4003,7 +4003,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
@@ -4015,7 +4015,7 @@
         <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -4038,7 +4038,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -4053,19 +4053,19 @@
         <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N9" t="s">
         <v>10</v>
@@ -4091,13 +4091,13 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -4109,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N10" t="s">
         <v>10</v>
@@ -4126,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -4153,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11" t="s">
         <v>10</v>
@@ -4211,7 +4211,7 @@
         <v>223</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O1" t="s">
         <v>224</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>486</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>486</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
         <v>486</v>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>486</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
         <v>486</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
         <v>486</v>
@@ -14600,7 +14600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
         <v>486</v>
@@ -18253,7 +18253,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
         <v>486</v>
@@ -20501,7 +20501,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>486</v>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>486</v>
@@ -26683,7 +26683,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>486</v>
@@ -28369,7 +28369,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
         <v>486</v>
@@ -28650,7 +28650,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
         <v>486</v>
@@ -29493,7 +29493,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
         <v>486</v>
@@ -30617,7 +30617,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
         <v>486</v>
@@ -31694,64 +31694,64 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
         <v>90</v>
       </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" t="s">
-        <v>91</v>
-      </c>
       <c r="T2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
         <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -31768,67 +31768,67 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
         <v>91</v>
       </c>
-      <c r="T3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" t="s">
-        <v>18</v>
-      </c>
       <c r="Y3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -31839,10 +31839,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -31851,10 +31851,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -31866,19 +31866,19 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -31887,22 +31887,22 @@
         <v>90</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="s">
         <v>10</v>
@@ -31916,73 +31916,73 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>90</v>
-      </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
         <v>12</v>
-      </c>
-      <c r="W5" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -31996,13 +31996,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
@@ -32011,19 +32011,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
         <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
       </c>
       <c r="N6" t="s">
         <v>10</v>
@@ -32032,31 +32032,31 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="R6" t="s">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s">
         <v>16</v>
-      </c>
-      <c r="X6" t="s">
-        <v>14</v>
       </c>
       <c r="Y6" t="s">
         <v>11</v>
@@ -32076,67 +32076,67 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
       </c>
       <c r="N7" t="s">
         <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="W7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -32150,70 +32150,70 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O8" t="s">
         <v>10</v>
       </c>
       <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" t="s">
-        <v>91</v>
-      </c>
-      <c r="T8" t="s">
-        <v>91</v>
-      </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="W8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -32227,10 +32227,10 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -32239,25 +32239,25 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -32266,31 +32266,31 @@
         <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="U9" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="V9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="Y9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -32304,70 +32304,70 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
         <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="s">
-        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" t="s">
         <v>90</v>
       </c>
-      <c r="O10" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="s">
         <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U10" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -32378,7 +32378,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -32387,64 +32387,64 @@
         <v>90</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
         <v>10</v>
       </c>
       <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" t="s">
         <v>12</v>
-      </c>
-      <c r="R11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" t="s">
-        <v>91</v>
-      </c>
-      <c r="T11" t="s">
-        <v>91</v>
-      </c>
-      <c r="U11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -32520,19 +32520,19 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" t="s">
         <v>96</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>97</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>98</v>
-      </c>
-      <c r="X1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -33378,22 +33378,22 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" t="s">
         <v>101</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>102</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>103</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>104</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
@@ -33410,25 +33410,25 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -33446,10 +33446,10 @@
         <v>90</v>
       </c>
       <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
         <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>109</v>
       </c>
       <c r="S2" t="s">
         <v>90</v>
@@ -33499,7 +33499,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -33508,7 +33508,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>55</v>
@@ -33576,10 +33576,10 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
@@ -33594,16 +33594,16 @@
         <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -33615,7 +33615,7 @@
         <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U4" t="s">
         <v>60</v>
@@ -33653,7 +33653,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -33671,7 +33671,7 @@
         <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
         <v>54</v>
@@ -33686,7 +33686,7 @@
         <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R5" t="s">
         <v>90</v>
@@ -33754,19 +33754,19 @@
         <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P6" t="s">
         <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R6" t="s">
         <v>90</v>
@@ -33819,7 +33819,7 @@
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
         <v>90</v>
@@ -33840,7 +33840,7 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
@@ -33855,7 +33855,7 @@
         <v>13</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U7" t="s">
         <v>53</v>
@@ -33964,19 +33964,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -33985,7 +33985,7 @@
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
         <v>90</v>
@@ -34006,7 +34006,7 @@
         <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
@@ -34080,22 +34080,22 @@
         <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R10" t="s">
         <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U10" t="s">
         <v>57</v>
@@ -34127,10 +34127,10 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -34139,13 +34139,13 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -34154,7 +34154,7 @@
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
         <v>90</v>
@@ -34175,7 +34175,7 @@
         <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U11" t="s">
         <v>56</v>
@@ -34269,7 +34269,7 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -34334,7 +34334,7 @@
         <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -34399,7 +34399,7 @@
         <v>15</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -34464,7 +34464,7 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -34529,7 +34529,7 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -34659,7 +34659,7 @@
         <v>16</v>
       </c>
       <c r="U7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -34724,7 +34724,7 @@
         <v>12</v>
       </c>
       <c r="U8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -34789,7 +34789,7 @@
         <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -34854,7 +34854,7 @@
         <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -34919,7 +34919,7 @@
         <v>14</v>
       </c>
       <c r="U11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -34938,16 +34938,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
@@ -34956,7 +34956,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -34968,19 +34968,19 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>123</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -34988,7 +34988,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -34997,19 +34997,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -35024,13 +35024,13 @@
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -35041,13 +35041,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -35059,28 +35059,28 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" t="s">
-        <v>133</v>
-      </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -35094,7 +35094,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -35103,7 +35103,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -35112,7 +35112,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -35121,16 +35121,16 @@
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -35138,16 +35138,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -35156,31 +35156,31 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
         <v>127</v>
       </c>
-      <c r="I5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -35188,7 +35188,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -35200,10 +35200,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -35215,13 +35215,13 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N6" t="s">
         <v>42</v>
@@ -35230,7 +35230,7 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -35244,43 +35244,43 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -35288,16 +35288,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -35306,10 +35306,10 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -35318,19 +35318,19 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -35341,7 +35341,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -35359,7 +35359,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -35368,10 +35368,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
         <v>40</v>
@@ -35380,7 +35380,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -35394,7 +35394,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -35403,34 +35403,34 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
         <v>127</v>
       </c>
-      <c r="I10" t="s">
-        <v>128</v>
-      </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -35438,22 +35438,22 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -35462,25 +35462,25 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -35499,16 +35499,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
@@ -35517,7 +35517,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -35529,19 +35529,19 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
         <v>163</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>164</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>165</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -35549,13 +35549,13 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -35567,10 +35567,10 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -35579,10 +35579,10 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -35602,16 +35602,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -35620,10 +35620,10 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
         <v>127</v>
-      </c>
-      <c r="J3" t="s">
-        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -35655,13 +35655,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -35670,7 +35670,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -35679,10 +35679,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" t="s">
         <v>169</v>
-      </c>
-      <c r="M4" t="s">
-        <v>170</v>
       </c>
       <c r="N4" t="s">
         <v>176</v>
@@ -35708,40 +35708,40 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
         <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
@@ -35761,7 +35761,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -35776,13 +35776,13 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
         <v>177</v>
@@ -35805,16 +35805,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -35823,13 +35823,13 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -35849,10 +35849,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -35861,25 +35861,25 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -35914,22 +35914,22 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
         <v>174</v>
@@ -35949,7 +35949,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -35973,10 +35973,10 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
@@ -35999,40 +35999,40 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
         <v>173</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N11" t="s">
         <v>180</v>
@@ -36060,16 +36060,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
@@ -36078,7 +36078,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -36099,7 +36099,7 @@
         <v>189</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" t="s">
         <v>190</v>
@@ -36110,13 +36110,13 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
@@ -36128,7 +36128,7 @@
         <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>90</v>
@@ -36143,10 +36143,10 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
@@ -36163,13 +36163,13 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>90</v>
@@ -36187,16 +36187,16 @@
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -36213,10 +36213,10 @@
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
@@ -36240,13 +36240,13 @@
         <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
@@ -36269,7 +36269,7 @@
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>90</v>
@@ -36293,10 +36293,10 @@
         <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -36310,10 +36310,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>90</v>
@@ -36322,19 +36322,19 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
         <v>90</v>
@@ -36343,10 +36343,10 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
@@ -36375,7 +36375,7 @@
         <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
@@ -36428,7 +36428,7 @@
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -36466,13 +36466,13 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
@@ -36481,7 +36481,7 @@
         <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -36490,10 +36490,10 @@
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -36513,7 +36513,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
@@ -36531,10 +36531,10 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
         <v>90</v>
@@ -36543,10 +36543,10 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -36569,7 +36569,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -36587,13 +36587,13 @@
         <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>

--- a/Divisions/SC3.xlsx
+++ b/Divisions/SC3.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="298">
   <si>
     <t>Team</t>
   </si>
@@ -917,237 +916,6 @@
   </si>
   <si>
     <t>38.57%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Albion Rvs,L D D D L D</t>
-  </si>
-  <si>
-    <t>Annan Athletic,W W W L L L</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,L L D D D L</t>
-  </si>
-  <si>
-    <t>Edinburgh City,W D L D W W</t>
-  </si>
-  <si>
-    <t>Elgin,L W D W L L</t>
-  </si>
-  <si>
-    <t>Forfar,W D L D W D</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,W W W W D D</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,W L D L W L</t>
-  </si>
-  <si>
-    <t>Stirling,W L L W L W</t>
-  </si>
-  <si>
-    <t>Stranraer,D D W L L W</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0 0 0 0 0 1,(1)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2 4 2 2 2 1,(13)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0 1 1 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 1 1 1 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Elgin,0 3 0 2 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Forfar,1 0 0 1 5 0,(7)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 3 3 1 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 0 0 0 4 1,(7)</t>
-  </si>
-  <si>
-    <t>Stirling,2 0 0 1 0 5,(8)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 3 0 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1 0 0 0 5 1,(7)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,1 1 1 4 3 2,(12)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 2 1 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,0 1 2 1 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Elgin,2 1 0 0 2 4,(9)</t>
-  </si>
-  <si>
-    <t>Forfar,0 0 1 1 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,0 1 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,0 1 0 1 1 3,(6)</t>
-  </si>
-  <si>
-    <t>Stirling,1 3 1 0 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Stranraer,1 0 0 2 3 0,(6)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,1 0 0 0 5 2,(8)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,3 5 3 6 5 3,(25)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,1 3 2 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 2 3 2 2 3,(13)</t>
-  </si>
-  <si>
-    <t>Elgin,2 4 0 2 2 5,(15)</t>
-  </si>
-  <si>
-    <t>Forfar,1 0 1 2 6 0,(10)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 4 4 1 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 1 0 1 5 4,(13)</t>
-  </si>
-  <si>
-    <t>Stirling,3 3 1 1 2 5,(15)</t>
-  </si>
-  <si>
-    <t>Stranraer,2 0 3 2 3 2,(12)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,0-1 0-0 0-0 0-0 0-5 1-1</t>
-  </si>
-  <si>
-    <t>Annan Athletic,2-1 4-1 2-1 2-4 2-3 1-2</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,0-1 1-2 1-1 0-0 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1-0 1-1 1-2 1-1 2-0 2-1</t>
-  </si>
-  <si>
-    <t>Elgin,0-2 3-1 0-0 2-0 0-2 1-4</t>
-  </si>
-  <si>
-    <t>Forfar,1-0 0-0 0-1 1-1 5-1 0-0</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1-0 3-1 3-1 1-0 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2-0 0-1 0-0 0-1 4-1 1-3</t>
-  </si>
-  <si>
-    <t>Stirling,2-1 0-3 0-1 1-0 0-2 5-0</t>
-  </si>
-  <si>
-    <t>Stranraer,1-1 0-0 3-0 0-2 0-3 2-0</t>
-  </si>
-  <si>
-    <t>Albion Rvs,-1 0 0 0 -5 0,(-6)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,1 3 1 -2 -1 -1,(1)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,-1 -1 0 0 0 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,1 0 -1 0 2 1,(3)</t>
-  </si>
-  <si>
-    <t>Elgin,-2 2 0 2 -2 -3,(-3)</t>
-  </si>
-  <si>
-    <t>Forfar,1 0 -1 0 4 0,(4)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,1 2 2 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,2 -1 0 -1 3 -2,(1)</t>
-  </si>
-  <si>
-    <t>Stirling,1 -3 -1 1 -2 5,(1)</t>
-  </si>
-  <si>
-    <t>Stranraer,0 0 3 -2 -3 2,(0)</t>
-  </si>
-  <si>
-    <t>Albion Rvs,Edinburgh City(4) Kelty Hearts(1) Forfar(2) Elgin(9) Stranraer(6) Stirling(7)</t>
-  </si>
-  <si>
-    <t>Annan Athletic,Edinburgh City(4) Stranraer(6) Elgin(9) Albion Rvs(8) Cowdenbeath(10) Kelty Hearts(1)</t>
-  </si>
-  <si>
-    <t>Cowdenbeath,Kelty Hearts(1) Forfar(2) Stenhousemuir(5) Stirling(7) Edinburgh City(4) Albion Rvs(8)</t>
-  </si>
-  <si>
-    <t>Edinburgh City,Cowdenbeath(10) Stenhousemuir(5) Stranraer(6) Kelty Hearts(1) Forfar(2) Annan Athletic(3)</t>
-  </si>
-  <si>
-    <t>Elgin,Annan Athletic(3) Stirling(7) Kelty Hearts(1) Edinburgh City(4) Stenhousemuir(5) Cowdenbeath(10)</t>
-  </si>
-  <si>
-    <t>Forfar,Kelty Hearts(1) Elgin(9) Stirling(7) Cowdenbeath(10) Annan Athletic(3) Stenhousemuir(5)</t>
-  </si>
-  <si>
-    <t>Kelty Hearts,Cowdenbeath(10) Annan Athletic(3) Albion Rvs(8) Stenhousemuir(5) Stirling(7) Forfar(2)</t>
-  </si>
-  <si>
-    <t>Stenhousemuir,Forfar(2) Kelty Hearts(1) Edinburgh City(4) Annan Athletic(3) Albion Rvs(8) Stranraer(6)</t>
-  </si>
-  <si>
-    <t>Stirling,Cowdenbeath(10) Annan Athletic(3) Albion Rvs(8) Stranraer(6) Elgin(9) Edinburgh City(4)</t>
-  </si>
-  <si>
-    <t>Stranraer,Stenhousemuir(5) Albion Rvs(8) Cowdenbeath(10) Forfar(2) Kelty Hearts(1) Elgin(9)</t>
   </si>
 </sst>
 </file>
@@ -2939,303 +2707,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G6" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" t="s">
-        <v>361</v>
-      </c>
-      <c r="H8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F9" t="s">
-        <v>352</v>
-      </c>
-      <c r="G9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F10" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" t="s">
-        <v>344</v>
-      </c>
-      <c r="F11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
